--- a/myCCB/myInfo/CCS Code and Names Linkage.xlsx
+++ b/myCCB/myInfo/CCS Code and Names Linkage.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="776">
   <si>
     <t>Tuberculosis</t>
   </si>
@@ -1354,9 +1354,6 @@
     <t>TRUE</t>
   </si>
   <si>
-    <t>Birth</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -2276,6 +2273,81 @@
   </si>
   <si>
     <t>topLevName</t>
+  </si>
+  <si>
+    <t>COPD</t>
+  </si>
+  <si>
+    <t>Other injuries</t>
+  </si>
+  <si>
+    <t>Other upper resp. inf.</t>
+  </si>
+  <si>
+    <t>Open wounds head &amp; trunk</t>
+  </si>
+  <si>
+    <t>Cardiac congenital anomalies</t>
+  </si>
+  <si>
+    <t>Hemolytic/perinatal jaundice</t>
+  </si>
+  <si>
+    <t>Hypertension with complications</t>
+  </si>
+  <si>
+    <t>Spondylosis / other back problems</t>
+  </si>
+  <si>
+    <t>Complication device / implant / graft</t>
+  </si>
+  <si>
+    <t>dizziness or vertigo</t>
+  </si>
+  <si>
+    <t>Perinatal</t>
+  </si>
+  <si>
+    <t>Other complications of birth</t>
+  </si>
+  <si>
+    <t>Schizophrenia</t>
+  </si>
+  <si>
+    <t>OB-related trauma</t>
+  </si>
+  <si>
+    <t>Septicemia</t>
+  </si>
+  <si>
+    <t>Skin infections</t>
+  </si>
+  <si>
+    <t>Other gastro. disorders</t>
+  </si>
+  <si>
+    <t>Stroke</t>
+  </si>
+  <si>
+    <t>Acute renal failure</t>
+  </si>
+  <si>
+    <t>Appendicitis</t>
+  </si>
+  <si>
+    <t>Chemotherapy</t>
+  </si>
+  <si>
+    <t>Polyhydramnios</t>
+  </si>
+  <si>
+    <t>Hypertension; pregnancy</t>
+  </si>
+  <si>
+    <t>Respiratory failure (adult)</t>
+  </si>
+  <si>
+    <t>Complications of surgery</t>
   </si>
 </sst>
 </file>
@@ -2712,16 +2784,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D228" sqref="D228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.28515625" customWidth="1"/>
+    <col min="3" max="3" width="105.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.42578125" customWidth="1"/>
     <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.7109375" customWidth="1"/>
@@ -2732,9 +2804,9 @@
     <col min="11" max="11" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="72.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="80.25" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>435</v>
@@ -2743,7 +2815,7 @@
         <v>436</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>437</v>
@@ -2761,7 +2833,7 @@
         <v>441</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>442</v>
@@ -2769,7 +2841,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -2791,18 +2863,18 @@
         <v>2</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -2810,7 +2882,9 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>765</v>
+      </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
@@ -2824,18 +2898,18 @@
         <v>2</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -2857,18 +2931,18 @@
         <v>2</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
@@ -2890,18 +2964,18 @@
         <v>6</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
@@ -2923,18 +2997,18 @@
         <v>8</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
@@ -2956,18 +3030,18 @@
         <v>8</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B8" s="2">
         <v>7</v>
@@ -2989,18 +3063,18 @@
         <v>8</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B9" s="2">
         <v>8</v>
@@ -3022,18 +3096,18 @@
         <v>11</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B10" s="2">
         <v>9</v>
@@ -3042,7 +3116,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -3057,18 +3131,18 @@
         <v>2</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
@@ -3090,18 +3164,18 @@
         <v>14</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B12" s="2">
         <v>11</v>
@@ -3123,18 +3197,18 @@
         <v>17</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B13" s="2">
         <v>12</v>
@@ -3156,18 +3230,18 @@
         <v>19</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B14" s="2">
         <v>13</v>
@@ -3189,18 +3263,18 @@
         <v>19</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B15" s="2">
         <v>14</v>
@@ -3222,18 +3296,18 @@
         <v>22</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B16" s="2">
         <v>15</v>
@@ -3255,18 +3329,18 @@
         <v>22</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B17" s="2">
         <v>16</v>
@@ -3288,18 +3362,18 @@
         <v>19</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B18" s="2">
         <v>17</v>
@@ -3321,18 +3395,18 @@
         <v>19</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B19" s="2">
         <v>18</v>
@@ -3354,18 +3428,18 @@
         <v>19</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B20" s="2">
         <v>19</v>
@@ -3387,18 +3461,18 @@
         <v>28</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B21" s="2">
         <v>20</v>
@@ -3420,18 +3494,18 @@
         <v>17</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B22" s="2">
         <v>21</v>
@@ -3453,18 +3527,18 @@
         <v>17</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B23" s="2">
         <v>22</v>
@@ -3486,18 +3560,18 @@
         <v>32</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B24" s="2">
         <v>23</v>
@@ -3519,18 +3593,18 @@
         <v>32</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B25" s="2">
         <v>24</v>
@@ -3552,18 +3626,18 @@
         <v>35</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B26" s="2">
         <v>25</v>
@@ -3585,18 +3659,18 @@
         <v>37</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B27" s="2">
         <v>26</v>
@@ -3618,18 +3692,18 @@
         <v>37</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B28" s="2">
         <v>27</v>
@@ -3651,18 +3725,18 @@
         <v>40</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B29" s="2">
         <v>28</v>
@@ -3684,18 +3758,18 @@
         <v>40</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B30" s="2">
         <v>29</v>
@@ -3717,18 +3791,18 @@
         <v>43</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B31" s="2">
         <v>30</v>
@@ -3750,18 +3824,18 @@
         <v>43</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B32" s="2">
         <v>31</v>
@@ -3783,18 +3857,18 @@
         <v>43</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B33" s="2">
         <v>32</v>
@@ -3816,18 +3890,18 @@
         <v>47</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B34" s="2">
         <v>33</v>
@@ -3849,18 +3923,18 @@
         <v>47</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B35" s="2">
         <v>34</v>
@@ -3882,18 +3956,18 @@
         <v>47</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B36" s="2">
         <v>35</v>
@@ -3915,18 +3989,18 @@
         <v>17</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B37" s="2">
         <v>36</v>
@@ -3948,18 +4022,18 @@
         <v>17</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B38" s="2">
         <v>37</v>
@@ -3981,18 +4055,18 @@
         <v>53</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B39" s="2">
         <v>38</v>
@@ -4014,18 +4088,18 @@
         <v>53</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B40" s="2">
         <v>39</v>
@@ -4047,18 +4121,18 @@
         <v>53</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B41" s="2">
         <v>40</v>
@@ -4080,18 +4154,18 @@
         <v>53</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B42" s="2">
         <v>41</v>
@@ -4113,18 +4187,18 @@
         <v>17</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B43" s="2">
         <v>42</v>
@@ -4146,18 +4220,18 @@
         <v>59</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B44" s="2">
         <v>43</v>
@@ -4179,18 +4253,18 @@
         <v>61</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B45" s="2">
         <v>44</v>
@@ -4212,18 +4286,18 @@
         <v>63</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B46" s="2">
         <v>45</v>
@@ -4231,7 +4305,9 @@
       <c r="C46" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>771</v>
+      </c>
       <c r="E46" s="2">
         <v>2</v>
       </c>
@@ -4245,18 +4321,18 @@
         <v>65</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B47" s="2">
         <v>46</v>
@@ -4278,18 +4354,18 @@
         <v>67</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B48" s="2">
         <v>47</v>
@@ -4311,18 +4387,18 @@
         <v>67</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B49" s="2">
         <v>48</v>
@@ -4344,18 +4420,18 @@
         <v>71</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B50" s="2">
         <v>49</v>
@@ -4377,18 +4453,18 @@
         <v>73</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B51" s="2">
         <v>50</v>
@@ -4410,18 +4486,18 @@
         <v>75</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B52" s="2">
         <v>51</v>
@@ -4443,18 +4519,18 @@
         <v>77</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B53" s="2">
         <v>52</v>
@@ -4476,18 +4552,18 @@
         <v>79</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K53" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B54" s="2">
         <v>53</v>
@@ -4509,18 +4585,18 @@
         <v>81</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B55" s="2">
         <v>54</v>
@@ -4542,18 +4618,18 @@
         <v>83</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B56" s="2">
         <v>55</v>
@@ -4575,18 +4651,18 @@
         <v>85</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B57" s="2">
         <v>56</v>
@@ -4608,18 +4684,18 @@
         <v>87</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B58" s="2">
         <v>57</v>
@@ -4641,18 +4717,18 @@
         <v>89</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B59" s="2">
         <v>58</v>
@@ -4674,18 +4750,18 @@
         <v>91</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J59" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K59" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B60" s="2">
         <v>59</v>
@@ -4707,18 +4783,18 @@
         <v>94</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J60" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K60" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B61" s="2">
         <v>60</v>
@@ -4740,18 +4816,18 @@
         <v>94</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J61" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K61" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B62" s="2">
         <v>61</v>
@@ -4773,18 +4849,18 @@
         <v>94</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B63" s="2">
         <v>62</v>
@@ -4806,18 +4882,18 @@
         <v>98</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B64" s="2">
         <v>63</v>
@@ -4839,18 +4915,18 @@
         <v>100</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B65" s="2">
         <v>64</v>
@@ -4872,18 +4948,18 @@
         <v>102</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B66" s="2">
         <v>76</v>
@@ -4892,7 +4968,7 @@
         <v>103</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E66" s="2">
         <v>6</v>
@@ -4907,18 +4983,18 @@
         <v>105</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B67" s="2">
         <v>77</v>
@@ -4927,7 +5003,7 @@
         <v>106</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E67" s="2">
         <v>6</v>
@@ -4942,18 +5018,18 @@
         <v>105</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B68" s="2">
         <v>78</v>
@@ -4975,18 +5051,18 @@
         <v>105</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B69" s="2">
         <v>79</v>
@@ -5008,18 +5084,18 @@
         <v>109</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B70" s="2">
         <v>80</v>
@@ -5041,18 +5117,18 @@
         <v>109</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B71" s="2">
         <v>81</v>
@@ -5074,18 +5150,18 @@
         <v>109</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B72" s="2">
         <v>82</v>
@@ -5107,18 +5183,18 @@
         <v>113</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B73" s="2">
         <v>83</v>
@@ -5140,18 +5216,18 @@
         <v>115</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J73" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K73" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="K73" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B74" s="2">
         <v>84</v>
@@ -5173,18 +5249,18 @@
         <v>117</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B75" s="2">
         <v>85</v>
@@ -5206,18 +5282,18 @@
         <v>119</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B76" s="2">
         <v>86</v>
@@ -5239,18 +5315,18 @@
         <v>121</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B77" s="2">
         <v>87</v>
@@ -5272,18 +5348,18 @@
         <v>121</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B78" s="2">
         <v>88</v>
@@ -5305,18 +5381,18 @@
         <v>121</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B79" s="2">
         <v>89</v>
@@ -5338,18 +5414,18 @@
         <v>121</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B80" s="2">
         <v>90</v>
@@ -5358,7 +5434,7 @@
         <v>125</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E80" s="2">
         <v>6</v>
@@ -5373,18 +5449,18 @@
         <v>121</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B81" s="2">
         <v>91</v>
@@ -5406,18 +5482,18 @@
         <v>121</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B82" s="2">
         <v>92</v>
@@ -5439,18 +5515,18 @@
         <v>128</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B83" s="2">
         <v>93</v>
@@ -5458,7 +5534,9 @@
       <c r="C83" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D83" s="2"/>
+      <c r="D83" s="2" t="s">
+        <v>760</v>
+      </c>
       <c r="E83" s="2">
         <v>6</v>
       </c>
@@ -5472,18 +5550,18 @@
         <v>128</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J83" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K83" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="K83" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B84" s="2">
         <v>94</v>
@@ -5505,18 +5583,18 @@
         <v>128</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B85" s="2">
         <v>95</v>
@@ -5538,18 +5616,18 @@
         <v>132</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B86" s="2">
         <v>96</v>
@@ -5571,18 +5649,18 @@
         <v>135</v>
       </c>
       <c r="I86" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="J86" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="J86" s="7" t="s">
-        <v>447</v>
-      </c>
       <c r="K86" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B87" s="2">
         <v>97</v>
@@ -5591,7 +5669,7 @@
         <v>136</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E87" s="2">
         <v>7</v>
@@ -5606,18 +5684,18 @@
         <v>135</v>
       </c>
       <c r="I87" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="J87" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="J87" s="7" t="s">
-        <v>447</v>
-      </c>
       <c r="K87" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B88" s="2">
         <v>98</v>
@@ -5639,18 +5717,18 @@
         <v>138</v>
       </c>
       <c r="I88" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="J88" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="J88" s="7" t="s">
-        <v>447</v>
-      </c>
       <c r="K88" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B89" s="2">
         <v>99</v>
@@ -5658,7 +5736,9 @@
       <c r="C89" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D89" s="2"/>
+      <c r="D89" s="2" t="s">
+        <v>757</v>
+      </c>
       <c r="E89" s="2">
         <v>7</v>
       </c>
@@ -5672,18 +5752,18 @@
         <v>138</v>
       </c>
       <c r="I89" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="J89" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="J89" s="7" t="s">
-        <v>447</v>
-      </c>
       <c r="K89" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B90" s="2">
         <v>100</v>
@@ -5705,18 +5785,18 @@
         <v>135</v>
       </c>
       <c r="I90" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="J90" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="J90" s="7" t="s">
-        <v>447</v>
-      </c>
       <c r="K90" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B91" s="2">
         <v>101</v>
@@ -5738,18 +5818,18 @@
         <v>135</v>
       </c>
       <c r="I91" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="J91" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="J91" s="7" t="s">
-        <v>447</v>
-      </c>
       <c r="K91" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B92" s="2">
         <v>102</v>
@@ -5771,18 +5851,18 @@
         <v>135</v>
       </c>
       <c r="I92" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="J92" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="J92" s="7" t="s">
-        <v>447</v>
-      </c>
       <c r="K92" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B93" s="2">
         <v>103</v>
@@ -5804,18 +5884,18 @@
         <v>135</v>
       </c>
       <c r="I93" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="J93" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="J93" s="7" t="s">
-        <v>447</v>
-      </c>
       <c r="K93" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B94" s="2">
         <v>104</v>
@@ -5837,18 +5917,18 @@
         <v>135</v>
       </c>
       <c r="I94" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="J94" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="J94" s="7" t="s">
-        <v>447</v>
-      </c>
       <c r="K94" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B95" s="2">
         <v>105</v>
@@ -5870,18 +5950,18 @@
         <v>135</v>
       </c>
       <c r="I95" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="J95" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="J95" s="7" t="s">
-        <v>447</v>
-      </c>
       <c r="K95" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B96" s="2">
         <v>106</v>
@@ -5903,18 +5983,18 @@
         <v>135</v>
       </c>
       <c r="I96" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="J96" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="J96" s="7" t="s">
-        <v>447</v>
-      </c>
       <c r="K96" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B97" s="2">
         <v>107</v>
@@ -5936,18 +6016,18 @@
         <v>135</v>
       </c>
       <c r="I97" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="J97" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="J97" s="7" t="s">
-        <v>447</v>
-      </c>
       <c r="K97" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B98" s="2">
         <v>108</v>
@@ -5969,18 +6049,18 @@
         <v>135</v>
       </c>
       <c r="I98" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="J98" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="J98" s="7" t="s">
-        <v>447</v>
-      </c>
       <c r="K98" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B99" s="2">
         <v>109</v>
@@ -5988,7 +6068,9 @@
       <c r="C99" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D99" s="2"/>
+      <c r="D99" s="2" t="s">
+        <v>768</v>
+      </c>
       <c r="E99" s="2">
         <v>7</v>
       </c>
@@ -6002,18 +6084,18 @@
         <v>150</v>
       </c>
       <c r="I99" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="J99" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="J99" s="7" t="s">
-        <v>447</v>
-      </c>
       <c r="K99" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B100" s="2">
         <v>110</v>
@@ -6035,18 +6117,18 @@
         <v>150</v>
       </c>
       <c r="I100" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="J100" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="J100" s="7" t="s">
-        <v>447</v>
-      </c>
       <c r="K100" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B101" s="2">
         <v>111</v>
@@ -6068,18 +6150,18 @@
         <v>150</v>
       </c>
       <c r="I101" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="J101" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="J101" s="7" t="s">
-        <v>447</v>
-      </c>
       <c r="K101" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B102" s="2">
         <v>112</v>
@@ -6101,18 +6183,18 @@
         <v>150</v>
       </c>
       <c r="I102" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="J102" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="J102" s="7" t="s">
-        <v>447</v>
-      </c>
       <c r="K102" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B103" s="2">
         <v>113</v>
@@ -6134,18 +6216,18 @@
         <v>150</v>
       </c>
       <c r="I103" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="J103" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="J103" s="7" t="s">
-        <v>447</v>
-      </c>
       <c r="K103" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B104" s="2">
         <v>114</v>
@@ -6167,18 +6249,18 @@
         <v>156</v>
       </c>
       <c r="I104" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="J104" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="J104" s="7" t="s">
-        <v>447</v>
-      </c>
       <c r="K104" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B105" s="2">
         <v>115</v>
@@ -6200,18 +6282,18 @@
         <v>156</v>
       </c>
       <c r="I105" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="J105" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="J105" s="7" t="s">
-        <v>447</v>
-      </c>
       <c r="K105" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B106" s="2">
         <v>116</v>
@@ -6233,18 +6315,18 @@
         <v>156</v>
       </c>
       <c r="I106" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="J106" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="J106" s="7" t="s">
-        <v>447</v>
-      </c>
       <c r="K106" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B107" s="2">
         <v>117</v>
@@ -6266,18 +6348,18 @@
         <v>156</v>
       </c>
       <c r="I107" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="J107" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="J107" s="7" t="s">
-        <v>447</v>
-      </c>
       <c r="K107" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B108" s="2">
         <v>118</v>
@@ -6299,18 +6381,18 @@
         <v>161</v>
       </c>
       <c r="I108" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="J108" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="J108" s="7" t="s">
-        <v>447</v>
-      </c>
       <c r="K108" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B109" s="2">
         <v>119</v>
@@ -6332,18 +6414,18 @@
         <v>161</v>
       </c>
       <c r="I109" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="J109" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="J109" s="7" t="s">
-        <v>447</v>
-      </c>
       <c r="K109" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B110" s="2">
         <v>120</v>
@@ -6365,18 +6447,18 @@
         <v>161</v>
       </c>
       <c r="I110" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="J110" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="J110" s="7" t="s">
-        <v>447</v>
-      </c>
       <c r="K110" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B111" s="2">
         <v>121</v>
@@ -6398,18 +6480,18 @@
         <v>161</v>
       </c>
       <c r="I111" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="J111" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="J111" s="7" t="s">
-        <v>447</v>
-      </c>
       <c r="K111" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B112" s="2">
         <v>122</v>
@@ -6418,7 +6500,7 @@
         <v>165</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E112" s="2">
         <v>8</v>
@@ -6433,18 +6515,18 @@
         <v>167</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B113" s="2">
         <v>123</v>
@@ -6466,18 +6548,18 @@
         <v>167</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K113" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B114" s="2">
         <v>124</v>
@@ -6499,18 +6581,18 @@
         <v>167</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K114" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B115" s="2">
         <v>125</v>
@@ -6532,18 +6614,18 @@
         <v>167</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J115" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K115" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="K115" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B116" s="2">
         <v>126</v>
@@ -6551,7 +6633,9 @@
       <c r="C116" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D116" s="2"/>
+      <c r="D116" s="2" t="s">
+        <v>753</v>
+      </c>
       <c r="E116" s="2">
         <v>8</v>
       </c>
@@ -6565,18 +6649,18 @@
         <v>167</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K116" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B117" s="2">
         <v>127</v>
@@ -6584,7 +6668,9 @@
       <c r="C117" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D117" s="2"/>
+      <c r="D117" s="2" t="s">
+        <v>751</v>
+      </c>
       <c r="E117" s="2">
         <v>8</v>
       </c>
@@ -6598,18 +6684,18 @@
         <v>173</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K117" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B118" s="2">
         <v>128</v>
@@ -6631,18 +6717,18 @@
         <v>175</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K118" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B119" s="2">
         <v>129</v>
@@ -6664,18 +6750,18 @@
         <v>177</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K119" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B120" s="2">
         <v>130</v>
@@ -6697,18 +6783,18 @@
         <v>179</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J120" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K120" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B121" s="2">
         <v>131</v>
@@ -6716,7 +6802,9 @@
       <c r="C121" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D121" s="2"/>
+      <c r="D121" s="2" t="s">
+        <v>774</v>
+      </c>
       <c r="E121" s="2">
         <v>8</v>
       </c>
@@ -6730,18 +6818,18 @@
         <v>181</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K121" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B122" s="2">
         <v>132</v>
@@ -6763,18 +6851,18 @@
         <v>183</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J122" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K122" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="K122" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B123" s="2">
         <v>133</v>
@@ -6796,18 +6884,18 @@
         <v>185</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K123" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B124" s="2">
         <v>134</v>
@@ -6829,18 +6917,18 @@
         <v>187</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K124" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B125" s="2">
         <v>135</v>
@@ -6862,18 +6950,18 @@
         <v>190</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K125" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B126" s="2">
         <v>136</v>
@@ -6895,18 +6983,18 @@
         <v>192</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K126" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B127" s="2">
         <v>137</v>
@@ -6928,18 +7016,18 @@
         <v>194</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J127" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K127" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="K127" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B128" s="2">
         <v>138</v>
@@ -6961,18 +7049,18 @@
         <v>196</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K128" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B129" s="2">
         <v>139</v>
@@ -6994,18 +7082,18 @@
         <v>196</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K129" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B130" s="2">
         <v>140</v>
@@ -7027,18 +7115,18 @@
         <v>196</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J130" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K130" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B131" s="2">
         <v>141</v>
@@ -7060,18 +7148,18 @@
         <v>196</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J131" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K131" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B132" s="2">
         <v>142</v>
@@ -7079,7 +7167,9 @@
       <c r="C132" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D132" s="2"/>
+      <c r="D132" s="2" t="s">
+        <v>770</v>
+      </c>
       <c r="E132" s="2">
         <v>9</v>
       </c>
@@ -7093,18 +7183,18 @@
         <v>201</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J132" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K132" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B133" s="2">
         <v>143</v>
@@ -7126,18 +7216,18 @@
         <v>203</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J133" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K133" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="K133" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B134" s="2">
         <v>144</v>
@@ -7159,18 +7249,18 @@
         <v>201</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J134" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K134" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B135" s="2">
         <v>145</v>
@@ -7192,18 +7282,18 @@
         <v>201</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J135" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K135" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B136" s="2">
         <v>146</v>
@@ -7225,18 +7315,18 @@
         <v>201</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J136" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K136" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B137" s="2">
         <v>147</v>
@@ -7258,18 +7348,18 @@
         <v>201</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J137" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K137" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="K137" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B138" s="2">
         <v>148</v>
@@ -7291,18 +7381,18 @@
         <v>201</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J138" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K138" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B139" s="2">
         <v>149</v>
@@ -7324,24 +7414,24 @@
         <v>210</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J139" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K139" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="K139" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B140" s="2">
         <v>150</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -7352,7 +7442,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B141" s="2">
         <v>151</v>
@@ -7374,18 +7464,18 @@
         <v>212</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J141" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K141" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B142" s="2">
         <v>152</v>
@@ -7407,18 +7497,18 @@
         <v>214</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J142" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K142" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B143" s="2">
         <v>153</v>
@@ -7440,18 +7530,18 @@
         <v>216</v>
       </c>
       <c r="I143" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J143" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K143" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B144" s="2">
         <v>154</v>
@@ -7473,18 +7563,18 @@
         <v>218</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J144" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K144" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B145" s="2">
         <v>155</v>
@@ -7492,7 +7582,9 @@
       <c r="C145" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D145" s="2"/>
+      <c r="D145" s="2" t="s">
+        <v>767</v>
+      </c>
       <c r="E145" s="2">
         <v>9</v>
       </c>
@@ -7506,18 +7598,18 @@
         <v>220</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J145" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K145" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B146" s="2">
         <v>156</v>
@@ -7539,18 +7631,18 @@
         <v>223</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J146" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K146" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B147" s="2">
         <v>157</v>
@@ -7558,7 +7650,9 @@
       <c r="C147" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D147" s="2"/>
+      <c r="D147" s="2" t="s">
+        <v>769</v>
+      </c>
       <c r="E147" s="2">
         <v>10</v>
       </c>
@@ -7572,18 +7666,18 @@
         <v>223</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J147" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K147" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B148" s="2">
         <v>158</v>
@@ -7605,18 +7699,18 @@
         <v>223</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J148" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K148" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B149" s="2">
         <v>159</v>
@@ -7638,18 +7732,18 @@
         <v>223</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J149" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K149" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B150" s="2">
         <v>160</v>
@@ -7671,18 +7765,18 @@
         <v>223</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J150" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K150" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="K150" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B151" s="2">
         <v>161</v>
@@ -7704,18 +7798,18 @@
         <v>223</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J151" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K151" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="K151" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B152" s="2">
         <v>162</v>
@@ -7737,18 +7831,18 @@
         <v>223</v>
       </c>
       <c r="I152" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J152" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K152" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="K152" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B153" s="2">
         <v>163</v>
@@ -7770,18 +7864,18 @@
         <v>223</v>
       </c>
       <c r="I153" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J153" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K153" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B154" s="2">
         <v>164</v>
@@ -7803,18 +7897,18 @@
         <v>232</v>
       </c>
       <c r="I154" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J154" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K154" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B155" s="2">
         <v>165</v>
@@ -7836,18 +7930,18 @@
         <v>232</v>
       </c>
       <c r="I155" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J155" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K155" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="K155" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B156" s="2">
         <v>166</v>
@@ -7869,18 +7963,18 @@
         <v>232</v>
       </c>
       <c r="I156" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J156" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K156" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="K156" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B157" s="2">
         <v>167</v>
@@ -7902,18 +7996,18 @@
         <v>236</v>
       </c>
       <c r="I157" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J157" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K157" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B158" s="2">
         <v>168</v>
@@ -7935,18 +8029,18 @@
         <v>236</v>
       </c>
       <c r="I158" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J158" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K158" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="K158" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B159" s="2">
         <v>169</v>
@@ -7968,18 +8062,18 @@
         <v>236</v>
       </c>
       <c r="I159" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J159" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K159" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B160" s="2">
         <v>170</v>
@@ -8001,18 +8095,18 @@
         <v>236</v>
       </c>
       <c r="I160" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J160" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K160" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B161" s="2">
         <v>171</v>
@@ -8034,18 +8128,18 @@
         <v>236</v>
       </c>
       <c r="I161" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J161" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K161" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B162" s="2">
         <v>172</v>
@@ -8067,18 +8161,18 @@
         <v>236</v>
       </c>
       <c r="I162" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J162" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K162" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B163" s="2">
         <v>173</v>
@@ -8100,18 +8194,18 @@
         <v>236</v>
       </c>
       <c r="I163" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J163" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K163" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B164" s="2">
         <v>174</v>
@@ -8133,18 +8227,18 @@
         <v>236</v>
       </c>
       <c r="I164" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J164" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K164" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B165" s="2">
         <v>175</v>
@@ -8166,18 +8260,18 @@
         <v>236</v>
       </c>
       <c r="I165" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J165" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K165" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="K165" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B166" s="2">
         <v>176</v>
@@ -8202,15 +8296,15 @@
         <v>443</v>
       </c>
       <c r="J166" s="7" t="s">
-        <v>444</v>
+        <v>761</v>
       </c>
       <c r="K166" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B167" s="2">
         <v>177</v>
@@ -8235,15 +8329,15 @@
         <v>443</v>
       </c>
       <c r="J167" s="7" t="s">
-        <v>444</v>
+        <v>761</v>
       </c>
       <c r="K167" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B168" s="2">
         <v>178</v>
@@ -8268,15 +8362,15 @@
         <v>443</v>
       </c>
       <c r="J168" s="7" t="s">
-        <v>444</v>
+        <v>761</v>
       </c>
       <c r="K168" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B169" s="2">
         <v>179</v>
@@ -8301,15 +8395,15 @@
         <v>443</v>
       </c>
       <c r="J169" s="7" t="s">
-        <v>444</v>
+        <v>761</v>
       </c>
       <c r="K169" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B170" s="2">
         <v>180</v>
@@ -8334,15 +8428,15 @@
         <v>443</v>
       </c>
       <c r="J170" s="7" t="s">
-        <v>444</v>
+        <v>761</v>
       </c>
       <c r="K170" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B171" s="2">
         <v>181</v>
@@ -8367,15 +8461,15 @@
         <v>443</v>
       </c>
       <c r="J171" s="7" t="s">
-        <v>444</v>
+        <v>761</v>
       </c>
       <c r="K171" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B172" s="2">
         <v>182</v>
@@ -8400,15 +8494,15 @@
         <v>443</v>
       </c>
       <c r="J172" s="7" t="s">
-        <v>444</v>
+        <v>761</v>
       </c>
       <c r="K172" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B173" s="2">
         <v>183</v>
@@ -8416,7 +8510,9 @@
       <c r="C173" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D173" s="2"/>
+      <c r="D173" s="2" t="s">
+        <v>773</v>
+      </c>
       <c r="E173" s="2">
         <v>11</v>
       </c>
@@ -8433,15 +8529,15 @@
         <v>443</v>
       </c>
       <c r="J173" s="7" t="s">
-        <v>444</v>
+        <v>761</v>
       </c>
       <c r="K173" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B174" s="2">
         <v>184</v>
@@ -8466,15 +8562,15 @@
         <v>443</v>
       </c>
       <c r="J174" s="7" t="s">
-        <v>444</v>
+        <v>761</v>
       </c>
       <c r="K174" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B175" s="2">
         <v>185</v>
@@ -8499,15 +8595,15 @@
         <v>443</v>
       </c>
       <c r="J175" s="7" t="s">
-        <v>444</v>
+        <v>761</v>
       </c>
       <c r="K175" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B176" s="2">
         <v>186</v>
@@ -8532,15 +8628,15 @@
         <v>443</v>
       </c>
       <c r="J176" s="7" t="s">
-        <v>444</v>
+        <v>761</v>
       </c>
       <c r="K176" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B177" s="2">
         <v>187</v>
@@ -8565,15 +8661,15 @@
         <v>443</v>
       </c>
       <c r="J177" s="7" t="s">
-        <v>444</v>
+        <v>761</v>
       </c>
       <c r="K177" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B178" s="2">
         <v>188</v>
@@ -8598,15 +8694,15 @@
         <v>443</v>
       </c>
       <c r="J178" s="7" t="s">
-        <v>444</v>
+        <v>761</v>
       </c>
       <c r="K178" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B179" s="2">
         <v>189</v>
@@ -8631,15 +8727,15 @@
         <v>443</v>
       </c>
       <c r="J179" s="7" t="s">
-        <v>444</v>
+        <v>761</v>
       </c>
       <c r="K179" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B180" s="2">
         <v>190</v>
@@ -8664,15 +8760,15 @@
         <v>443</v>
       </c>
       <c r="J180" s="7" t="s">
-        <v>444</v>
+        <v>761</v>
       </c>
       <c r="K180" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B181" s="2">
         <v>191</v>
@@ -8680,7 +8776,9 @@
       <c r="C181" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D181" s="2"/>
+      <c r="D181" s="2" t="s">
+        <v>772</v>
+      </c>
       <c r="E181" s="2">
         <v>11</v>
       </c>
@@ -8697,15 +8795,15 @@
         <v>443</v>
       </c>
       <c r="J181" s="7" t="s">
-        <v>444</v>
+        <v>761</v>
       </c>
       <c r="K181" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B182" s="2">
         <v>192</v>
@@ -8730,15 +8828,15 @@
         <v>443</v>
       </c>
       <c r="J182" s="7" t="s">
-        <v>444</v>
+        <v>761</v>
       </c>
       <c r="K182" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B183" s="2">
         <v>193</v>
@@ -8746,7 +8844,9 @@
       <c r="C183" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D183" s="2"/>
+      <c r="D183" s="2" t="s">
+        <v>764</v>
+      </c>
       <c r="E183" s="2">
         <v>11</v>
       </c>
@@ -8763,15 +8863,15 @@
         <v>443</v>
       </c>
       <c r="J183" s="7" t="s">
-        <v>444</v>
+        <v>761</v>
       </c>
       <c r="K183" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B184" s="2">
         <v>194</v>
@@ -8796,15 +8896,15 @@
         <v>443</v>
       </c>
       <c r="J184" s="7" t="s">
-        <v>444</v>
+        <v>761</v>
       </c>
       <c r="K184" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B185" s="2">
         <v>195</v>
@@ -8812,7 +8912,9 @@
       <c r="C185" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D185" s="2"/>
+      <c r="D185" s="2" t="s">
+        <v>762</v>
+      </c>
       <c r="E185" s="2">
         <v>11</v>
       </c>
@@ -8829,15 +8931,15 @@
         <v>443</v>
       </c>
       <c r="J185" s="7" t="s">
-        <v>444</v>
+        <v>761</v>
       </c>
       <c r="K185" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B186" s="2">
         <v>196</v>
@@ -8862,15 +8964,15 @@
         <v>443</v>
       </c>
       <c r="J186" s="7" t="s">
-        <v>444</v>
+        <v>761</v>
       </c>
       <c r="K186" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B187" s="2">
         <v>197</v>
@@ -8878,7 +8980,9 @@
       <c r="C187" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D187" s="2"/>
+      <c r="D187" s="2" t="s">
+        <v>766</v>
+      </c>
       <c r="E187" s="2">
         <v>12</v>
       </c>
@@ -8892,18 +8996,18 @@
         <v>276</v>
       </c>
       <c r="I187" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J187" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K187" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B188" s="2">
         <v>198</v>
@@ -8925,18 +9029,18 @@
         <v>278</v>
       </c>
       <c r="I188" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J188" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K188" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B189" s="2">
         <v>199</v>
@@ -8958,18 +9062,18 @@
         <v>280</v>
       </c>
       <c r="I189" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J189" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K189" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B190" s="2">
         <v>200</v>
@@ -8991,18 +9095,18 @@
         <v>282</v>
       </c>
       <c r="I190" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J190" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K190" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="K190" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B191" s="2">
         <v>201</v>
@@ -9024,18 +9128,18 @@
         <v>285</v>
       </c>
       <c r="I191" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J191" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K191" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B192" s="2">
         <v>202</v>
@@ -9057,18 +9161,18 @@
         <v>287</v>
       </c>
       <c r="I192" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J192" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K192" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B193" s="2">
         <v>203</v>
@@ -9090,18 +9194,18 @@
         <v>287</v>
       </c>
       <c r="I193" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J193" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K193" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B194" s="2">
         <v>204</v>
@@ -9123,18 +9227,18 @@
         <v>287</v>
       </c>
       <c r="I194" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J194" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K194" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B195" s="2">
         <v>205</v>
@@ -9142,7 +9246,9 @@
       <c r="C195" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D195" s="2"/>
+      <c r="D195" s="2" t="s">
+        <v>758</v>
+      </c>
       <c r="E195" s="2">
         <v>13</v>
       </c>
@@ -9156,18 +9262,18 @@
         <v>291</v>
       </c>
       <c r="I195" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J195" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K195" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B196" s="2">
         <v>206</v>
@@ -9189,18 +9295,18 @@
         <v>293</v>
       </c>
       <c r="I196" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J196" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K196" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B197" s="2">
         <v>207</v>
@@ -9222,18 +9328,18 @@
         <v>295</v>
       </c>
       <c r="I197" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J197" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K197" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B198" s="2">
         <v>208</v>
@@ -9255,18 +9361,18 @@
         <v>297</v>
       </c>
       <c r="I198" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J198" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K198" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B199" s="2">
         <v>209</v>
@@ -9288,18 +9394,18 @@
         <v>297</v>
       </c>
       <c r="I199" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J199" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K199" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B200" s="2">
         <v>210</v>
@@ -9321,18 +9427,18 @@
         <v>300</v>
       </c>
       <c r="I200" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J200" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K200" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B201" s="2">
         <v>211</v>
@@ -9354,18 +9460,18 @@
         <v>302</v>
       </c>
       <c r="I201" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J201" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K201" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B202" s="2">
         <v>212</v>
@@ -9387,18 +9493,18 @@
         <v>304</v>
       </c>
       <c r="I202" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J202" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K202" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B203" s="2">
         <v>213</v>
@@ -9406,7 +9512,9 @@
       <c r="C203" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D203" s="2"/>
+      <c r="D203" s="2" t="s">
+        <v>755</v>
+      </c>
       <c r="E203" s="2">
         <v>14</v>
       </c>
@@ -9420,18 +9528,18 @@
         <v>307</v>
       </c>
       <c r="I203" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="J203" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="J203" s="7" t="s">
-        <v>447</v>
-      </c>
       <c r="K203" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B204" s="2">
         <v>214</v>
@@ -9453,18 +9561,18 @@
         <v>309</v>
       </c>
       <c r="I204" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J204" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K204" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B205" s="2">
         <v>215</v>
@@ -9486,18 +9594,18 @@
         <v>311</v>
       </c>
       <c r="I205" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J205" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K205" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B206" s="2">
         <v>216</v>
@@ -9519,18 +9627,18 @@
         <v>313</v>
       </c>
       <c r="I206" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J206" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K206" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B207" s="2">
         <v>217</v>
@@ -9552,18 +9660,18 @@
         <v>315</v>
       </c>
       <c r="I207" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J207" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K207" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B208" s="2">
         <v>218</v>
@@ -9588,15 +9696,15 @@
         <v>443</v>
       </c>
       <c r="J208" s="7" t="s">
-        <v>444</v>
+        <v>761</v>
       </c>
       <c r="K208" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B209" s="2">
         <v>219</v>
@@ -9621,15 +9729,15 @@
         <v>443</v>
       </c>
       <c r="J209" s="7" t="s">
-        <v>444</v>
+        <v>761</v>
       </c>
       <c r="K209" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B210" s="2">
         <v>220</v>
@@ -9654,15 +9762,15 @@
         <v>443</v>
       </c>
       <c r="J210" s="7" t="s">
-        <v>444</v>
+        <v>761</v>
       </c>
       <c r="K210" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B211" s="2">
         <v>221</v>
@@ -9687,15 +9795,15 @@
         <v>443</v>
       </c>
       <c r="J211" s="7" t="s">
-        <v>444</v>
+        <v>761</v>
       </c>
       <c r="K211" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B212" s="2">
         <v>222</v>
@@ -9703,7 +9811,9 @@
       <c r="C212" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D212" s="2"/>
+      <c r="D212" s="2" t="s">
+        <v>756</v>
+      </c>
       <c r="E212" s="2">
         <v>15</v>
       </c>
@@ -9720,15 +9830,15 @@
         <v>443</v>
       </c>
       <c r="J212" s="7" t="s">
-        <v>444</v>
+        <v>761</v>
       </c>
       <c r="K212" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B213" s="2">
         <v>223</v>
@@ -9753,15 +9863,15 @@
         <v>443</v>
       </c>
       <c r="J213" s="7" t="s">
-        <v>444</v>
+        <v>761</v>
       </c>
       <c r="K213" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B214" s="2">
         <v>224</v>
@@ -9786,15 +9896,15 @@
         <v>443</v>
       </c>
       <c r="J214" s="7" t="s">
-        <v>444</v>
+        <v>761</v>
       </c>
       <c r="K214" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B215" s="2">
         <v>225</v>
@@ -9816,18 +9926,18 @@
         <v>333</v>
       </c>
       <c r="I215" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J215" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K215" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B216" s="2">
         <v>226</v>
@@ -9849,18 +9959,18 @@
         <v>335</v>
       </c>
       <c r="I216" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J216" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K216" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B217" s="2">
         <v>227</v>
@@ -9882,18 +9992,18 @@
         <v>337</v>
       </c>
       <c r="I217" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J217" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K217" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B218" s="2">
         <v>228</v>
@@ -9915,18 +10025,18 @@
         <v>335</v>
       </c>
       <c r="I218" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J218" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K218" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B219" s="2">
         <v>229</v>
@@ -9948,18 +10058,18 @@
         <v>335</v>
       </c>
       <c r="I219" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J219" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K219" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B220" s="2">
         <v>230</v>
@@ -9981,18 +10091,18 @@
         <v>335</v>
       </c>
       <c r="I220" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J220" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K220" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B221" s="2">
         <v>231</v>
@@ -10014,18 +10124,18 @@
         <v>335</v>
       </c>
       <c r="I221" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J221" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K221" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B222" s="2">
         <v>232</v>
@@ -10047,18 +10157,18 @@
         <v>343</v>
       </c>
       <c r="I222" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J222" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K222" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B223" s="2">
         <v>233</v>
@@ -10080,18 +10190,18 @@
         <v>345</v>
       </c>
       <c r="I223" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J223" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K223" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B224" s="2">
         <v>234</v>
@@ -10113,18 +10223,18 @@
         <v>347</v>
       </c>
       <c r="I224" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J224" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K224" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B225" s="2">
         <v>235</v>
@@ -10132,7 +10242,9 @@
       <c r="C225" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D225" s="2"/>
+      <c r="D225" s="2" t="s">
+        <v>754</v>
+      </c>
       <c r="E225" s="2">
         <v>16</v>
       </c>
@@ -10146,18 +10258,18 @@
         <v>349</v>
       </c>
       <c r="I225" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J225" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K225" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B226" s="2">
         <v>236</v>
@@ -10179,18 +10291,18 @@
         <v>349</v>
       </c>
       <c r="I226" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J226" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K226" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B227" s="2">
         <v>237</v>
@@ -10198,7 +10310,9 @@
       <c r="C227" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D227" s="2"/>
+      <c r="D227" s="2" t="s">
+        <v>759</v>
+      </c>
       <c r="E227" s="2">
         <v>16</v>
       </c>
@@ -10212,18 +10326,18 @@
         <v>352</v>
       </c>
       <c r="I227" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J227" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K227" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B228" s="2">
         <v>238</v>
@@ -10231,7 +10345,9 @@
       <c r="C228" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D228" s="2"/>
+      <c r="D228" s="2" t="s">
+        <v>775</v>
+      </c>
       <c r="E228" s="2">
         <v>16</v>
       </c>
@@ -10245,18 +10361,18 @@
         <v>352</v>
       </c>
       <c r="I228" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J228" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K228" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B229" s="2">
         <v>239</v>
@@ -10278,18 +10394,18 @@
         <v>355</v>
       </c>
       <c r="I229" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J229" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K229" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B230" s="2">
         <v>240</v>
@@ -10311,18 +10427,18 @@
         <v>357</v>
       </c>
       <c r="I230" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J230" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K230" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B231" s="2">
         <v>241</v>
@@ -10344,18 +10460,18 @@
         <v>359</v>
       </c>
       <c r="I231" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J231" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K231" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B232" s="2">
         <v>242</v>
@@ -10377,18 +10493,18 @@
         <v>359</v>
       </c>
       <c r="I232" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J232" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K232" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B233" s="2">
         <v>243</v>
@@ -10410,18 +10526,18 @@
         <v>359</v>
       </c>
       <c r="I233" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J233" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K233" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B234" s="2">
         <v>244</v>
@@ -10429,7 +10545,9 @@
       <c r="C234" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D234" s="2"/>
+      <c r="D234" s="2" t="s">
+        <v>752</v>
+      </c>
       <c r="E234" s="2">
         <v>16</v>
       </c>
@@ -10443,18 +10561,18 @@
         <v>363</v>
       </c>
       <c r="I234" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J234" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K234" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B235" s="2">
         <v>245</v>
@@ -10476,18 +10594,18 @@
         <v>366</v>
       </c>
       <c r="I235" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J235" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K235" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B236" s="2">
         <v>246</v>
@@ -10509,18 +10627,18 @@
         <v>366</v>
       </c>
       <c r="I236" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J236" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K236" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B237" s="2">
         <v>247</v>
@@ -10542,18 +10660,18 @@
         <v>366</v>
       </c>
       <c r="I237" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J237" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K237" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B238" s="2">
         <v>248</v>
@@ -10575,18 +10693,18 @@
         <v>366</v>
       </c>
       <c r="I238" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J238" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K238" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B239" s="2">
         <v>249</v>
@@ -10608,18 +10726,18 @@
         <v>366</v>
       </c>
       <c r="I239" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J239" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K239" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B240" s="2">
         <v>250</v>
@@ -10641,18 +10759,18 @@
         <v>366</v>
       </c>
       <c r="I240" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J240" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K240" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B241" s="2">
         <v>251</v>
@@ -10674,18 +10792,18 @@
         <v>366</v>
       </c>
       <c r="I241" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J241" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K241" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B242" s="2">
         <v>252</v>
@@ -10707,18 +10825,18 @@
         <v>366</v>
       </c>
       <c r="I242" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J242" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K242" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B243" s="2">
         <v>253</v>
@@ -10740,18 +10858,18 @@
         <v>366</v>
       </c>
       <c r="I243" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J243" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K243" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B244" s="2">
         <v>254</v>
@@ -10773,18 +10891,18 @@
         <v>376</v>
       </c>
       <c r="I244" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J244" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K244" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="K244" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B245" s="2">
         <v>255</v>
@@ -10806,18 +10924,18 @@
         <v>376</v>
       </c>
       <c r="I245" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J245" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K245" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="K245" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B246" s="2">
         <v>256</v>
@@ -10839,18 +10957,18 @@
         <v>376</v>
       </c>
       <c r="I246" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J246" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K246" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B247" s="2">
         <v>257</v>
@@ -10872,18 +10990,18 @@
         <v>376</v>
       </c>
       <c r="I247" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J247" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K247" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="K247" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B248" s="2">
         <v>258</v>
@@ -10905,18 +11023,18 @@
         <v>376</v>
       </c>
       <c r="I248" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J248" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K248" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="K248" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B249" s="2">
         <v>259</v>
@@ -10932,30 +11050,30 @@
         <v>382</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H249" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I249" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J249" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K249" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="K249" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B250" s="2">
         <v>260</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -10966,7 +11084,7 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B251" s="2">
         <v>650</v>
@@ -10988,18 +11106,18 @@
         <v>385</v>
       </c>
       <c r="I251" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J251" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K251" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B252" s="2">
         <v>651</v>
@@ -11021,18 +11139,18 @@
         <v>387</v>
       </c>
       <c r="I252" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J252" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K252" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B253" s="2">
         <v>652</v>
@@ -11054,18 +11172,18 @@
         <v>389</v>
       </c>
       <c r="I253" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J253" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K253" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B254" s="2">
         <v>653</v>
@@ -11087,18 +11205,18 @@
         <v>391</v>
       </c>
       <c r="I254" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J254" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K254" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B255" s="2">
         <v>654</v>
@@ -11120,18 +11238,18 @@
         <v>393</v>
       </c>
       <c r="I255" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J255" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K255" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B256" s="2">
         <v>655</v>
@@ -11153,18 +11271,18 @@
         <v>395</v>
       </c>
       <c r="I256" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J256" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K256" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B257" s="2">
         <v>656</v>
@@ -11186,18 +11304,18 @@
         <v>397</v>
       </c>
       <c r="I257" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J257" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K257" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B258" s="2">
         <v>657</v>
@@ -11219,18 +11337,18 @@
         <v>399</v>
       </c>
       <c r="I258" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J258" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K258" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B259" s="2">
         <v>658</v>
@@ -11252,18 +11370,18 @@
         <v>401</v>
       </c>
       <c r="I259" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J259" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K259" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B260" s="2">
         <v>659</v>
@@ -11271,7 +11389,9 @@
       <c r="C260" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D260" s="2"/>
+      <c r="D260" s="2" t="s">
+        <v>763</v>
+      </c>
       <c r="E260" s="2">
         <v>5</v>
       </c>
@@ -11285,18 +11405,18 @@
         <v>403</v>
       </c>
       <c r="I260" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J260" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K260" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B261" s="2">
         <v>660</v>
@@ -11318,18 +11438,18 @@
         <v>405</v>
       </c>
       <c r="I261" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J261" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K261" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B262" s="2">
         <v>661</v>
@@ -11351,18 +11471,18 @@
         <v>407</v>
       </c>
       <c r="I262" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J262" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K262" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B263" s="2">
         <v>662</v>
@@ -11384,18 +11504,18 @@
         <v>409</v>
       </c>
       <c r="I263" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J263" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K263" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B264" s="2">
         <v>663</v>
@@ -11417,18 +11537,18 @@
         <v>411</v>
       </c>
       <c r="I264" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J264" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K264" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B265" s="2">
         <v>670</v>
@@ -11450,18 +11570,18 @@
         <v>413</v>
       </c>
       <c r="I265" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J265" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K265" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B266" s="2">
         <v>2601</v>
@@ -11477,24 +11597,24 @@
         <v>382</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H266" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I266" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J266" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K266" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B267" s="2">
         <v>2602</v>
@@ -11510,24 +11630,24 @@
         <v>382</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H267" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I267" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J267" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K267" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B268" s="2">
         <v>2603</v>
@@ -11543,24 +11663,24 @@
         <v>382</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H268" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I268" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J268" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K268" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B269" s="2">
         <v>2604</v>
@@ -11576,24 +11696,24 @@
         <v>382</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H269" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I269" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J269" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K269" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B270" s="2">
         <v>2605</v>
@@ -11609,24 +11729,24 @@
         <v>382</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H270" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I270" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J270" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K270" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B271" s="2">
         <v>2606</v>
@@ -11642,24 +11762,24 @@
         <v>382</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H271" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I271" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J271" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K271" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B272" s="2">
         <v>2607</v>
@@ -11675,24 +11795,24 @@
         <v>382</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H272" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I272" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J272" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K272" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B273" s="2">
         <v>2608</v>
@@ -11708,24 +11828,24 @@
         <v>382</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H273" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I273" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J273" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K273" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B274" s="2">
         <v>2609</v>
@@ -11741,24 +11861,24 @@
         <v>382</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H274" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I274" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J274" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K274" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B275" s="2">
         <v>2610</v>
@@ -11774,24 +11894,24 @@
         <v>382</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H275" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I275" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J275" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K275" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B276" s="2">
         <v>2611</v>
@@ -11807,24 +11927,24 @@
         <v>382</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H276" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I276" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J276" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K276" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B277" s="2">
         <v>2612</v>
@@ -11840,24 +11960,24 @@
         <v>382</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H277" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I277" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J277" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K277" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B278" s="2">
         <v>2613</v>
@@ -11873,24 +11993,24 @@
         <v>382</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H278" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I278" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J278" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K278" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B279" s="2">
         <v>2614</v>
@@ -11906,24 +12026,24 @@
         <v>382</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H279" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I279" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J279" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K279" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B280" s="2">
         <v>2615</v>
@@ -11939,24 +12059,24 @@
         <v>382</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H280" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I280" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J280" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K280" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B281" s="2">
         <v>2616</v>
@@ -11972,24 +12092,24 @@
         <v>382</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H281" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I281" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J281" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K281" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B282" s="2">
         <v>2617</v>
@@ -12005,24 +12125,24 @@
         <v>382</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H282" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I282" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J282" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K282" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B283" s="2">
         <v>2618</v>
@@ -12038,24 +12158,24 @@
         <v>382</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H283" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I283" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J283" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K283" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B284" s="2">
         <v>2619</v>
@@ -12071,24 +12191,24 @@
         <v>382</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H284" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I284" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J284" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K284" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B285" s="2">
         <v>2620</v>
@@ -12104,24 +12224,24 @@
         <v>382</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H285" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I285" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J285" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K285" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B286" s="2">
         <v>2621</v>
@@ -12137,19 +12257,19 @@
         <v>382</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H286" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I286" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J286" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K286" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>

--- a/myCCB/myInfo/CCS Code and Names Linkage.xlsx
+++ b/myCCB/myInfo/CCS Code and Names Linkage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\myCCB\myInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD962C1-96D1-45AA-B917-AC34F8513BDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA143B5-08CB-49E7-9059-D6353F8F2267}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="names" sheetId="1" r:id="rId1"/>
@@ -2868,8 +2868,8 @@
   <dimension ref="A1:K287"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J265" sqref="J265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11547,7 +11547,7 @@
         <v>445</v>
       </c>
       <c r="J262" s="5" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="K262" s="5" t="s">
         <v>449</v>
@@ -11580,7 +11580,7 @@
         <v>445</v>
       </c>
       <c r="J263" s="5" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="K263" s="5" t="s">
         <v>449</v>
@@ -11613,7 +11613,7 @@
         <v>445</v>
       </c>
       <c r="J264" s="5" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="K264" s="5" t="s">
         <v>449</v>

--- a/myCCB/myInfo/CCS Code and Names Linkage.xlsx
+++ b/myCCB/myInfo/CCS Code and Names Linkage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\myCCB\myInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA143B5-08CB-49E7-9059-D6353F8F2267}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8790AF-6E85-4B36-BB60-B12BB6826632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="780">
   <si>
     <t>Tuberculosis</t>
   </si>
@@ -2355,16 +2355,29 @@
   </si>
   <si>
     <t>COVID-19</t>
+  </si>
+  <si>
+    <t>o3001</t>
+  </si>
+  <si>
+    <t>COVID-19 contact</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2446,7 +2459,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2517,57 +2530,120 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2865,11 +2941,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K287"/>
+  <dimension ref="A1:L288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J265" sqref="J265"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2887,7 +2963,7 @@
     <col min="11" max="11" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="72.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="81.75" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>457</v>
       </c>
@@ -2922,7 +2998,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="17" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>776</v>
       </c>
@@ -2940,67 +3016,58 @@
       <c r="I2" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="21" t="s">
         <v>451</v>
       </c>
       <c r="K2" s="16"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="1:12" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>778</v>
+      </c>
+      <c r="B3" s="23">
+        <v>3001</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>779</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>458</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10">
         <v>1</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G4" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>459</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -3013,17 +3080,19 @@
         <v>444</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>765</v>
+      </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
@@ -3046,15 +3115,15 @@
         <v>444</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1">
@@ -3064,10 +3133,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>445</v>
@@ -3079,15 +3148,15 @@
         <v>444</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
@@ -3097,10 +3166,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>445</v>
@@ -3112,15 +3181,15 @@
         <v>444</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1">
@@ -3145,15 +3214,15 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
@@ -3178,15 +3247,15 @@
         <v>444</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
@@ -3196,10 +3265,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>445</v>
@@ -3211,19 +3280,17 @@
         <v>444</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B11" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>744</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="1">
         <v>1</v>
       </c>
@@ -3231,10 +3298,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>445</v>
@@ -3246,17 +3313,19 @@
         <v>444</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B12" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>744</v>
+      </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
@@ -3264,10 +3333,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>445</v>
@@ -3276,51 +3345,51 @@
         <v>451</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>2.11</v>
+        <v>1.5</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B14" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1">
@@ -3330,10 +3399,10 @@
         <v>16</v>
       </c>
       <c r="G14" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.11</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>445</v>
@@ -3345,15 +3414,15 @@
         <v>444</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B15" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1">
@@ -3378,15 +3447,15 @@
         <v>444</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B16" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1">
@@ -3396,10 +3465,10 @@
         <v>16</v>
       </c>
       <c r="G16" s="1">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>445</v>
@@ -3413,13 +3482,13 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B17" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1">
@@ -3446,13 +3515,13 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B18" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1">
@@ -3462,10 +3531,10 @@
         <v>16</v>
       </c>
       <c r="G18" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>445</v>
@@ -3479,13 +3548,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B19" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
@@ -3512,13 +3581,13 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B20" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1">
@@ -3545,13 +3614,13 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B21" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1">
@@ -3561,10 +3630,10 @@
         <v>16</v>
       </c>
       <c r="G21" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>445</v>
@@ -3578,13 +3647,13 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B22" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
@@ -3594,10 +3663,10 @@
         <v>16</v>
       </c>
       <c r="G22" s="1">
-        <v>2.11</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>445</v>
@@ -3611,13 +3680,13 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B23" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1">
@@ -3644,13 +3713,13 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B24" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1">
@@ -3660,10 +3729,10 @@
         <v>16</v>
       </c>
       <c r="G24" s="1">
-        <v>2.4</v>
+        <v>2.11</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>445</v>
@@ -3677,13 +3746,13 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B25" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1">
@@ -3710,13 +3779,13 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B26" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1">
@@ -3726,10 +3795,10 @@
         <v>16</v>
       </c>
       <c r="G26" s="1">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>445</v>
@@ -3743,13 +3812,13 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B27" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
@@ -3759,10 +3828,10 @@
         <v>16</v>
       </c>
       <c r="G27" s="1">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>445</v>
@@ -3776,13 +3845,13 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B28" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
@@ -3809,13 +3878,13 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B29" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
@@ -3825,10 +3894,10 @@
         <v>16</v>
       </c>
       <c r="G29" s="1">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>445</v>
@@ -3842,13 +3911,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B30" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1">
@@ -3875,13 +3944,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B31" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
@@ -3891,10 +3960,10 @@
         <v>16</v>
       </c>
       <c r="G31" s="1">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>445</v>
@@ -3908,13 +3977,13 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B32" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1">
@@ -3941,13 +4010,13 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B33" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1">
@@ -3974,13 +4043,13 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B34" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1">
@@ -3990,10 +4059,10 @@
         <v>16</v>
       </c>
       <c r="G34" s="1">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>445</v>
@@ -4007,13 +4076,13 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B35" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1">
@@ -4040,13 +4109,13 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B36" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
@@ -4073,13 +4142,13 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B37" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
@@ -4089,10 +4158,10 @@
         <v>16</v>
       </c>
       <c r="G37" s="1">
-        <v>2.11</v>
+        <v>2.9</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>445</v>
@@ -4106,13 +4175,13 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B38" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1">
@@ -4139,13 +4208,13 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B39" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1">
@@ -4155,10 +4224,10 @@
         <v>16</v>
       </c>
       <c r="G39" s="1">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>445</v>
@@ -4172,13 +4241,13 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B40" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1">
@@ -4205,13 +4274,13 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B41" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1">
@@ -4238,13 +4307,13 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B42" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1">
@@ -4271,13 +4340,13 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B43" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1">
@@ -4287,10 +4356,10 @@
         <v>16</v>
       </c>
       <c r="G43" s="1">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>445</v>
@@ -4304,13 +4373,13 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B44" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1">
@@ -4320,10 +4389,10 @@
         <v>16</v>
       </c>
       <c r="G44" s="1">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>445</v>
@@ -4337,13 +4406,13 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B45" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1">
@@ -4353,10 +4422,10 @@
         <v>16</v>
       </c>
       <c r="G45" s="1">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>445</v>
@@ -4370,13 +4439,13 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B46" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1">
@@ -4386,10 +4455,10 @@
         <v>16</v>
       </c>
       <c r="G46" s="1">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>445</v>
@@ -4403,17 +4472,15 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B47" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>771</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D47" s="1"/>
       <c r="E47" s="1">
         <v>2</v>
       </c>
@@ -4421,10 +4488,10 @@
         <v>16</v>
       </c>
       <c r="G47" s="1">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>445</v>
@@ -4438,15 +4505,17 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B48" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D48" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>771</v>
+      </c>
       <c r="E48" s="1">
         <v>2</v>
       </c>
@@ -4454,10 +4523,10 @@
         <v>16</v>
       </c>
       <c r="G48" s="1">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>445</v>
@@ -4471,13 +4540,13 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B49" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1">
@@ -4504,46 +4573,46 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B50" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G50" s="1">
-        <v>3.1</v>
+        <v>2.16</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B51" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1">
@@ -4553,10 +4622,10 @@
         <v>70</v>
       </c>
       <c r="G51" s="1">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>445</v>
@@ -4565,18 +4634,18 @@
         <v>447</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B52" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1">
@@ -4586,10 +4655,10 @@
         <v>70</v>
       </c>
       <c r="G52" s="1">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>445</v>
@@ -4603,13 +4672,13 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B53" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1">
@@ -4619,10 +4688,10 @@
         <v>70</v>
       </c>
       <c r="G53" s="1">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>445</v>
@@ -4636,13 +4705,13 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B54" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1">
@@ -4652,30 +4721,30 @@
         <v>70</v>
       </c>
       <c r="G54" s="1">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B55" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1">
@@ -4685,10 +4754,10 @@
         <v>70</v>
       </c>
       <c r="G55" s="1">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>445</v>
@@ -4697,18 +4766,18 @@
         <v>448</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B56" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1">
@@ -4718,16 +4787,16 @@
         <v>70</v>
       </c>
       <c r="G56" s="1">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K56" s="5" t="s">
         <v>444</v>
@@ -4735,13 +4804,13 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B57" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1">
@@ -4751,30 +4820,30 @@
         <v>70</v>
       </c>
       <c r="G57" s="1">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B58" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1">
@@ -4784,30 +4853,30 @@
         <v>70</v>
       </c>
       <c r="G58" s="1">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B59" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1">
@@ -4817,10 +4886,10 @@
         <v>70</v>
       </c>
       <c r="G59" s="1">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>445</v>
@@ -4834,13 +4903,13 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B60" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1">
@@ -4850,43 +4919,43 @@
         <v>70</v>
       </c>
       <c r="G60" s="1">
-        <v>3.11</v>
+        <v>3.1</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B61" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="G61" s="1">
-        <v>4.0999999999999996</v>
+        <v>3.11</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>445</v>
@@ -4900,13 +4969,13 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B62" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1">
@@ -4933,13 +5002,13 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B63" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1">
@@ -4958,21 +5027,21 @@
         <v>445</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B64" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1">
@@ -4982,10 +5051,10 @@
         <v>93</v>
       </c>
       <c r="G64" s="1">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>445</v>
@@ -4994,18 +5063,18 @@
         <v>447</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B65" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1">
@@ -5015,10 +5084,10 @@
         <v>93</v>
       </c>
       <c r="G65" s="1">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>445</v>
@@ -5032,13 +5101,13 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B66" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1">
@@ -5048,10 +5117,10 @@
         <v>93</v>
       </c>
       <c r="G66" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I66" s="4" t="s">
         <v>445</v>
@@ -5065,51 +5134,49 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B67" s="1">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>745</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D67" s="1"/>
       <c r="E67" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="G67" s="1">
-        <v>6.1</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B68" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E68" s="1">
         <v>6</v>
@@ -5127,7 +5194,7 @@
         <v>445</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="K68" s="5" t="s">
         <v>444</v>
@@ -5135,15 +5202,17 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B69" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D69" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>746</v>
+      </c>
       <c r="E69" s="1">
         <v>6</v>
       </c>
@@ -5160,7 +5229,7 @@
         <v>445</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="K69" s="5" t="s">
         <v>444</v>
@@ -5168,13 +5237,13 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B70" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1">
@@ -5184,16 +5253,16 @@
         <v>104</v>
       </c>
       <c r="G70" s="1">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="K70" s="5" t="s">
         <v>444</v>
@@ -5201,13 +5270,13 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B71" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1">
@@ -5234,13 +5303,13 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B72" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1">
@@ -5267,13 +5336,13 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B73" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1">
@@ -5283,10 +5352,10 @@
         <v>104</v>
       </c>
       <c r="G73" s="1">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>445</v>
@@ -5300,13 +5369,13 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B74" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1">
@@ -5316,30 +5385,30 @@
         <v>104</v>
       </c>
       <c r="G74" s="1">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B75" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1">
@@ -5349,10 +5418,10 @@
         <v>104</v>
       </c>
       <c r="G75" s="1">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>445</v>
@@ -5361,18 +5430,18 @@
         <v>448</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B76" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1">
@@ -5382,16 +5451,16 @@
         <v>104</v>
       </c>
       <c r="G76" s="1">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I76" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K76" s="5" t="s">
         <v>444</v>
@@ -5399,13 +5468,13 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B77" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1">
@@ -5415,10 +5484,10 @@
         <v>104</v>
       </c>
       <c r="G77" s="1">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I77" s="4" t="s">
         <v>445</v>
@@ -5432,13 +5501,13 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B78" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1">
@@ -5457,7 +5526,7 @@
         <v>445</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K78" s="5" t="s">
         <v>444</v>
@@ -5465,13 +5534,13 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B79" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1">
@@ -5490,7 +5559,7 @@
         <v>445</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K79" s="5" t="s">
         <v>444</v>
@@ -5498,13 +5567,13 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B80" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1">
@@ -5526,22 +5595,20 @@
         <v>447</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B81" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>747</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="D81" s="1"/>
       <c r="E81" s="1">
         <v>6</v>
       </c>
@@ -5558,23 +5625,25 @@
         <v>445</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K81" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B82" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D82" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>747</v>
+      </c>
       <c r="E82" s="1">
         <v>6</v>
       </c>
@@ -5591,7 +5660,7 @@
         <v>445</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="K82" s="5" t="s">
         <v>444</v>
@@ -5599,13 +5668,13 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B83" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1">
@@ -5615,16 +5684,16 @@
         <v>104</v>
       </c>
       <c r="G83" s="1">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I83" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="K83" s="5" t="s">
         <v>444</v>
@@ -5632,17 +5701,15 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B84" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>760</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="D84" s="1"/>
       <c r="E84" s="1">
         <v>6</v>
       </c>
@@ -5659,23 +5726,25 @@
         <v>445</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="K84" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B85" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D85" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>760</v>
+      </c>
       <c r="E85" s="1">
         <v>6</v>
       </c>
@@ -5695,18 +5764,18 @@
         <v>448</v>
       </c>
       <c r="K85" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B86" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1">
@@ -5716,67 +5785,65 @@
         <v>104</v>
       </c>
       <c r="G86" s="1">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I86" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B87" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="G87" s="1">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I87" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B88" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>748</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D88" s="1"/>
       <c r="E88" s="1">
         <v>7</v>
       </c>
@@ -5801,15 +5868,17 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B89" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D89" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>748</v>
+      </c>
       <c r="E89" s="1">
         <v>7</v>
       </c>
@@ -5817,10 +5886,10 @@
         <v>134</v>
       </c>
       <c r="G89" s="1">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I89" s="4" t="s">
         <v>445</v>
@@ -5834,17 +5903,15 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B90" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>757</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D90" s="1"/>
       <c r="E90" s="1">
         <v>7</v>
       </c>
@@ -5869,15 +5936,17 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B91" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D91" s="1"/>
+        <v>139</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>757</v>
+      </c>
       <c r="E91" s="1">
         <v>7</v>
       </c>
@@ -5885,10 +5954,10 @@
         <v>134</v>
       </c>
       <c r="G91" s="1">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I91" s="4" t="s">
         <v>445</v>
@@ -5902,13 +5971,13 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B92" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1">
@@ -5935,13 +6004,13 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B93" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1">
@@ -5968,13 +6037,13 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B94" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1">
@@ -6001,13 +6070,13 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B95" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1">
@@ -6034,13 +6103,13 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B96" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1">
@@ -6067,13 +6136,13 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B97" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1">
@@ -6100,13 +6169,13 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B98" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1">
@@ -6133,13 +6202,13 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B99" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1">
@@ -6166,17 +6235,15 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B100" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>768</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="D100" s="1"/>
       <c r="E100" s="1">
         <v>7</v>
       </c>
@@ -6184,10 +6251,10 @@
         <v>134</v>
       </c>
       <c r="G100" s="1">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="I100" s="4" t="s">
         <v>445</v>
@@ -6201,15 +6268,17 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B101" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D101" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>768</v>
+      </c>
       <c r="E101" s="1">
         <v>7</v>
       </c>
@@ -6234,13 +6303,13 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B102" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1">
@@ -6267,13 +6336,13 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B103" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1">
@@ -6300,13 +6369,13 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B104" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1">
@@ -6333,13 +6402,13 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B105" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1">
@@ -6349,10 +6418,10 @@
         <v>134</v>
       </c>
       <c r="G105" s="1">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I105" s="4" t="s">
         <v>445</v>
@@ -6366,13 +6435,13 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B106" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1">
@@ -6399,13 +6468,13 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B107" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1">
@@ -6432,13 +6501,13 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B108" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1">
@@ -6465,13 +6534,13 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B109" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1">
@@ -6481,10 +6550,10 @@
         <v>134</v>
       </c>
       <c r="G109" s="1">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I109" s="4" t="s">
         <v>445</v>
@@ -6498,13 +6567,13 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B110" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1">
@@ -6531,13 +6600,13 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B111" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1">
@@ -6564,13 +6633,13 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B112" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1">
@@ -6597,34 +6666,32 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B113" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>749</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="D113" s="1"/>
       <c r="E113" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="G113" s="1">
-        <v>8.1</v>
+        <v>7.5</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="I113" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="K113" s="5" t="s">
         <v>444</v>
@@ -6632,15 +6699,17 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B114" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D114" s="1"/>
+        <v>165</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>749</v>
+      </c>
       <c r="E114" s="1">
         <v>8</v>
       </c>
@@ -6665,13 +6734,13 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B115" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1">
@@ -6690,7 +6759,7 @@
         <v>445</v>
       </c>
       <c r="J115" s="5" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="K115" s="5" t="s">
         <v>444</v>
@@ -6698,13 +6767,13 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B116" s="1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1">
@@ -6726,22 +6795,20 @@
         <v>448</v>
       </c>
       <c r="K116" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B117" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>753</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D117" s="1"/>
       <c r="E117" s="1">
         <v>8</v>
       </c>
@@ -6761,21 +6828,21 @@
         <v>448</v>
       </c>
       <c r="K117" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B118" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E118" s="1">
         <v>8</v>
@@ -6784,16 +6851,16 @@
         <v>166</v>
       </c>
       <c r="G118" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.1</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I118" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K118" s="5" t="s">
         <v>444</v>
@@ -6801,15 +6868,17 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B119" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D119" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>751</v>
+      </c>
       <c r="E119" s="1">
         <v>8</v>
       </c>
@@ -6817,10 +6886,10 @@
         <v>166</v>
       </c>
       <c r="G119" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I119" s="4" t="s">
         <v>445</v>
@@ -6834,13 +6903,13 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B120" s="1">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1">
@@ -6850,30 +6919,30 @@
         <v>166</v>
       </c>
       <c r="G120" s="1">
-        <v>8.4</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I120" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="K120" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B121" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1">
@@ -6883,34 +6952,32 @@
         <v>166</v>
       </c>
       <c r="G121" s="1">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I121" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="K121" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B122" s="1">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>774</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D122" s="1"/>
       <c r="E122" s="1">
         <v>8</v>
       </c>
@@ -6918,10 +6985,10 @@
         <v>166</v>
       </c>
       <c r="G122" s="1">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I122" s="4" t="s">
         <v>445</v>
@@ -6935,15 +7002,17 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B123" s="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D123" s="1"/>
+        <v>180</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>774</v>
+      </c>
       <c r="E123" s="1">
         <v>8</v>
       </c>
@@ -6951,10 +7020,10 @@
         <v>166</v>
       </c>
       <c r="G123" s="1">
-        <v>8.6999999999999993</v>
+        <v>8.6</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I123" s="4" t="s">
         <v>445</v>
@@ -6963,18 +7032,18 @@
         <v>448</v>
       </c>
       <c r="K123" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B124" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1">
@@ -6984,10 +7053,10 @@
         <v>166</v>
       </c>
       <c r="G124" s="1">
-        <v>8.8000000000000007</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I124" s="4" t="s">
         <v>445</v>
@@ -6996,18 +7065,18 @@
         <v>448</v>
       </c>
       <c r="K124" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B125" s="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1">
@@ -7017,10 +7086,10 @@
         <v>166</v>
       </c>
       <c r="G125" s="1">
-        <v>8.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I125" s="4" t="s">
         <v>445</v>
@@ -7034,32 +7103,32 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B126" s="1">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="G126" s="1">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I126" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="K126" s="5" t="s">
         <v>444</v>
@@ -7067,13 +7136,13 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B127" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1">
@@ -7083,16 +7152,16 @@
         <v>189</v>
       </c>
       <c r="G127" s="1">
-        <v>9.1999999999999993</v>
+        <v>9.1</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I127" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="K127" s="5" t="s">
         <v>444</v>
@@ -7100,13 +7169,13 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B128" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1">
@@ -7116,30 +7185,30 @@
         <v>189</v>
       </c>
       <c r="G128" s="1">
-        <v>9.3000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I128" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K128" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B129" s="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1">
@@ -7149,30 +7218,30 @@
         <v>189</v>
       </c>
       <c r="G129" s="1">
-        <v>9.4</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I129" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K129" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B130" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1">
@@ -7191,21 +7260,21 @@
         <v>445</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="K130" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B131" s="1">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1">
@@ -7224,21 +7293,21 @@
         <v>445</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="K131" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B132" s="1">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1">
@@ -7257,25 +7326,23 @@
         <v>445</v>
       </c>
       <c r="J132" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K132" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B133" s="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>770</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="D133" s="1"/>
       <c r="E133" s="1">
         <v>9</v>
       </c>
@@ -7283,32 +7350,34 @@
         <v>189</v>
       </c>
       <c r="G133" s="1">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I133" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J133" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K133" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B134" s="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D134" s="1"/>
+        <v>200</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>770</v>
+      </c>
       <c r="E134" s="1">
         <v>9</v>
       </c>
@@ -7316,10 +7385,10 @@
         <v>189</v>
       </c>
       <c r="G134" s="1">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I134" s="4" t="s">
         <v>445</v>
@@ -7328,18 +7397,18 @@
         <v>448</v>
       </c>
       <c r="K134" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B135" s="1">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1">
@@ -7349,30 +7418,30 @@
         <v>189</v>
       </c>
       <c r="G135" s="1">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I135" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K135" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B136" s="1">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1">
@@ -7391,7 +7460,7 @@
         <v>445</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K136" s="5" t="s">
         <v>444</v>
@@ -7399,13 +7468,13 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B137" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1">
@@ -7432,13 +7501,13 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B138" s="1">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1">
@@ -7460,18 +7529,18 @@
         <v>448</v>
       </c>
       <c r="K138" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B139" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1">
@@ -7493,18 +7562,18 @@
         <v>448</v>
       </c>
       <c r="K139" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B140" s="1">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1">
@@ -7514,10 +7583,10 @@
         <v>189</v>
       </c>
       <c r="G140" s="1">
-        <v>9.6999999999999993</v>
+        <v>9.6</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="I140" s="4" t="s">
         <v>445</v>
@@ -7526,68 +7595,68 @@
         <v>448</v>
       </c>
       <c r="K140" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B141" s="1">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>455</v>
+        <v>209</v>
       </c>
       <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-      <c r="I141" s="4"/>
+      <c r="E141" s="1">
+        <v>9</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G141" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="J141" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="K141" s="5" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B142" s="1">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>211</v>
+        <v>455</v>
       </c>
       <c r="D142" s="1"/>
-      <c r="E142" s="1">
-        <v>9</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G142" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="I142" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="J142" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="K142" s="5" t="s">
-        <v>449</v>
-      </c>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="4"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B143" s="1">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1">
@@ -7597,10 +7666,10 @@
         <v>189</v>
       </c>
       <c r="G143" s="1">
-        <v>9.9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I143" s="4" t="s">
         <v>445</v>
@@ -7609,18 +7678,18 @@
         <v>447</v>
       </c>
       <c r="K143" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B144" s="1">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1">
@@ -7630,16 +7699,16 @@
         <v>189</v>
       </c>
       <c r="G144" s="1">
-        <v>9.1</v>
+        <v>9.9</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I144" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J144" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K144" s="5" t="s">
         <v>444</v>
@@ -7647,13 +7716,13 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B145" s="1">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1">
@@ -7663,10 +7732,10 @@
         <v>189</v>
       </c>
       <c r="G145" s="1">
-        <v>9.11</v>
+        <v>9.1</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I145" s="4" t="s">
         <v>445</v>
@@ -7680,17 +7749,15 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B146" s="1">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>767</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="D146" s="1"/>
       <c r="E146" s="1">
         <v>9</v>
       </c>
@@ -7698,43 +7765,45 @@
         <v>189</v>
       </c>
       <c r="G146" s="1">
-        <v>9.1199999999999992</v>
+        <v>9.11</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I146" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J146" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K146" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B147" s="1">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D147" s="1"/>
+        <v>219</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>767</v>
+      </c>
       <c r="E147" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="G147" s="1">
-        <v>10.1</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I147" s="4" t="s">
         <v>445</v>
@@ -7748,17 +7817,15 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B148" s="1">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>769</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="D148" s="1"/>
       <c r="E148" s="1">
         <v>10</v>
       </c>
@@ -7775,23 +7842,25 @@
         <v>445</v>
       </c>
       <c r="J148" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K148" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B149" s="1">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D149" s="1"/>
+        <v>224</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>769</v>
+      </c>
       <c r="E149" s="1">
         <v>10</v>
       </c>
@@ -7808,7 +7877,7 @@
         <v>445</v>
       </c>
       <c r="J149" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K149" s="5" t="s">
         <v>444</v>
@@ -7816,13 +7885,13 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B150" s="1">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1">
@@ -7841,7 +7910,7 @@
         <v>445</v>
       </c>
       <c r="J150" s="5" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K150" s="5" t="s">
         <v>444</v>
@@ -7849,13 +7918,13 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B151" s="1">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1">
@@ -7874,21 +7943,21 @@
         <v>445</v>
       </c>
       <c r="J151" s="5" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="K151" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B152" s="1">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1">
@@ -7915,13 +7984,13 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B153" s="1">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1">
@@ -7948,13 +8017,13 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B154" s="1">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1">
@@ -7976,18 +8045,18 @@
         <v>448</v>
       </c>
       <c r="K154" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B155" s="1">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1">
@@ -7997,16 +8066,16 @@
         <v>222</v>
       </c>
       <c r="G155" s="1">
-        <v>10.199999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="I155" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J155" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K155" s="5" t="s">
         <v>444</v>
@@ -8014,13 +8083,13 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B156" s="1">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1">
@@ -8039,21 +8108,21 @@
         <v>445</v>
       </c>
       <c r="J156" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K156" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B157" s="1">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1">
@@ -8080,13 +8149,13 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B158" s="1">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1">
@@ -8096,30 +8165,30 @@
         <v>222</v>
       </c>
       <c r="G158" s="1">
-        <v>10.3</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="I158" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J158" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K158" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B159" s="1">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1">
@@ -8138,21 +8207,21 @@
         <v>445</v>
       </c>
       <c r="J159" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K159" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B160" s="1">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1">
@@ -8171,21 +8240,21 @@
         <v>445</v>
       </c>
       <c r="J160" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K160" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B161" s="1">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1">
@@ -8207,18 +8276,18 @@
         <v>447</v>
       </c>
       <c r="K161" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B162" s="1">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1">
@@ -8245,13 +8314,13 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B163" s="1">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1">
@@ -8273,18 +8342,18 @@
         <v>447</v>
       </c>
       <c r="K163" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B164" s="1">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1">
@@ -8311,13 +8380,13 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B165" s="1">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1">
@@ -8344,13 +8413,13 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B166" s="1">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1">
@@ -8369,54 +8438,54 @@
         <v>445</v>
       </c>
       <c r="J166" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K166" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B167" s="1">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="G167" s="1">
-        <v>11.1</v>
+        <v>10.3</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="I167" s="4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="J167" s="5" t="s">
-        <v>761</v>
+        <v>448</v>
       </c>
       <c r="K167" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B168" s="1">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D168" s="1"/>
       <c r="E168" s="1">
@@ -8426,10 +8495,10 @@
         <v>246</v>
       </c>
       <c r="G168" s="1">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I168" s="4" t="s">
         <v>443</v>
@@ -8443,13 +8512,13 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B169" s="1">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1">
@@ -8476,13 +8545,13 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B170" s="1">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D170" s="1"/>
       <c r="E170" s="1">
@@ -8509,13 +8578,13 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B171" s="1">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1">
@@ -8525,10 +8594,10 @@
         <v>246</v>
       </c>
       <c r="G171" s="1">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I171" s="4" t="s">
         <v>443</v>
@@ -8542,13 +8611,13 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B172" s="1">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1">
@@ -8575,13 +8644,13 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B173" s="1">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1">
@@ -8608,17 +8677,15 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B174" s="1">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>773</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="D174" s="1"/>
       <c r="E174" s="1">
         <v>11</v>
       </c>
@@ -8643,15 +8710,17 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B175" s="1">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D175" s="1"/>
+        <v>256</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>773</v>
+      </c>
       <c r="E175" s="1">
         <v>11</v>
       </c>
@@ -8676,13 +8745,13 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B176" s="1">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1">
@@ -8709,13 +8778,13 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B177" s="1">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1">
@@ -8742,13 +8811,13 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B178" s="1">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D178" s="1"/>
       <c r="E178" s="1">
@@ -8758,10 +8827,10 @@
         <v>246</v>
       </c>
       <c r="G178" s="1">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="I178" s="4" t="s">
         <v>443</v>
@@ -8775,13 +8844,13 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B179" s="1">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1">
@@ -8808,13 +8877,13 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B180" s="1">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D180" s="1"/>
       <c r="E180" s="1">
@@ -8841,13 +8910,13 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B181" s="1">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1">
@@ -8874,17 +8943,15 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B182" s="1">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>772</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="D182" s="1"/>
       <c r="E182" s="1">
         <v>11</v>
       </c>
@@ -8909,15 +8976,17 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B183" s="1">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D183" s="1"/>
+        <v>265</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>772</v>
+      </c>
       <c r="E183" s="1">
         <v>11</v>
       </c>
@@ -8925,10 +8994,10 @@
         <v>246</v>
       </c>
       <c r="G183" s="1">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="I183" s="4" t="s">
         <v>443</v>
@@ -8942,17 +9011,15 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B184" s="1">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>764</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="D184" s="1"/>
       <c r="E184" s="1">
         <v>11</v>
       </c>
@@ -8977,15 +9044,17 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B185" s="1">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D185" s="1"/>
+        <v>268</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>764</v>
+      </c>
       <c r="E185" s="1">
         <v>11</v>
       </c>
@@ -9010,17 +9079,15 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B186" s="1">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>762</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="D186" s="1"/>
       <c r="E186" s="1">
         <v>11</v>
       </c>
@@ -9028,10 +9095,10 @@
         <v>246</v>
       </c>
       <c r="G186" s="1">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I186" s="4" t="s">
         <v>443</v>
@@ -9045,15 +9112,17 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B187" s="1">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D187" s="1"/>
+        <v>270</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>762</v>
+      </c>
       <c r="E187" s="1">
         <v>11</v>
       </c>
@@ -9061,10 +9130,10 @@
         <v>246</v>
       </c>
       <c r="G187" s="1">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I187" s="4" t="s">
         <v>443</v>
@@ -9078,34 +9147,32 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B188" s="1">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>766</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="D188" s="1"/>
       <c r="E188" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="G188" s="1">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I188" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J188" s="5" t="s">
-        <v>451</v>
+        <v>761</v>
       </c>
       <c r="K188" s="5" t="s">
         <v>444</v>
@@ -9113,15 +9180,17 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B189" s="1">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D189" s="1"/>
+        <v>274</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>766</v>
+      </c>
       <c r="E189" s="1">
         <v>12</v>
       </c>
@@ -9129,16 +9198,16 @@
         <v>275</v>
       </c>
       <c r="G189" s="1">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I189" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J189" s="5" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="K189" s="5" t="s">
         <v>444</v>
@@ -9146,13 +9215,13 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B190" s="1">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1">
@@ -9162,30 +9231,30 @@
         <v>275</v>
       </c>
       <c r="G190" s="1">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I190" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J190" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K190" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B191" s="1">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1">
@@ -9195,16 +9264,16 @@
         <v>275</v>
       </c>
       <c r="G191" s="1">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I191" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J191" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K191" s="5" t="s">
         <v>449</v>
@@ -9212,46 +9281,46 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B192" s="1">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="G192" s="1">
-        <v>13.1</v>
+        <v>12.4</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I192" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J192" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="K192" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B193" s="1">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D193" s="1"/>
       <c r="E193" s="1">
@@ -9261,16 +9330,16 @@
         <v>284</v>
       </c>
       <c r="G193" s="1">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I193" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J193" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="K193" s="5" t="s">
         <v>444</v>
@@ -9278,13 +9347,13 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B194" s="1">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1">
@@ -9311,13 +9380,13 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B195" s="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D195" s="1"/>
       <c r="E195" s="1">
@@ -9344,17 +9413,15 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B196" s="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>758</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="D196" s="1"/>
       <c r="E196" s="1">
         <v>13</v>
       </c>
@@ -9362,10 +9429,10 @@
         <v>284</v>
       </c>
       <c r="G196" s="1">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I196" s="4" t="s">
         <v>445</v>
@@ -9379,15 +9446,17 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B197" s="1">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D197" s="1"/>
+        <v>290</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>758</v>
+      </c>
       <c r="E197" s="1">
         <v>13</v>
       </c>
@@ -9395,10 +9464,10 @@
         <v>284</v>
       </c>
       <c r="G197" s="1">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I197" s="4" t="s">
         <v>445</v>
@@ -9412,13 +9481,13 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B198" s="1">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1">
@@ -9428,30 +9497,30 @@
         <v>284</v>
       </c>
       <c r="G198" s="1">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I198" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J198" s="5" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K198" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B199" s="1">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1">
@@ -9461,30 +9530,30 @@
         <v>284</v>
       </c>
       <c r="G199" s="1">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I199" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J199" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="K199" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B200" s="1">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1">
@@ -9511,13 +9580,13 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B201" s="1">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1">
@@ -9527,10 +9596,10 @@
         <v>284</v>
       </c>
       <c r="G201" s="1">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I201" s="4" t="s">
         <v>445</v>
@@ -9544,13 +9613,13 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B202" s="1">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D202" s="1"/>
       <c r="E202" s="1">
@@ -9560,10 +9629,10 @@
         <v>284</v>
       </c>
       <c r="G202" s="1">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I202" s="4" t="s">
         <v>445</v>
@@ -9572,18 +9641,18 @@
         <v>447</v>
       </c>
       <c r="K202" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B203" s="1">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D203" s="1"/>
       <c r="E203" s="1">
@@ -9593,10 +9662,10 @@
         <v>284</v>
       </c>
       <c r="G203" s="1">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I203" s="4" t="s">
         <v>445</v>
@@ -9605,39 +9674,37 @@
         <v>447</v>
       </c>
       <c r="K203" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B204" s="1">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>755</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="D204" s="1"/>
       <c r="E204" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="G204" s="1">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I204" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J204" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K204" s="5" t="s">
         <v>444</v>
@@ -9645,15 +9712,17 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B205" s="1">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D205" s="1"/>
+        <v>305</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>755</v>
+      </c>
       <c r="E205" s="1">
         <v>14</v>
       </c>
@@ -9661,16 +9730,16 @@
         <v>306</v>
       </c>
       <c r="G205" s="1">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I205" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J205" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K205" s="5" t="s">
         <v>444</v>
@@ -9678,13 +9747,13 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B206" s="1">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D206" s="1"/>
       <c r="E206" s="1">
@@ -9694,10 +9763,10 @@
         <v>306</v>
       </c>
       <c r="G206" s="1">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I206" s="4" t="s">
         <v>445</v>
@@ -9711,13 +9780,13 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B207" s="1">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D207" s="1"/>
       <c r="E207" s="1">
@@ -9727,10 +9796,10 @@
         <v>306</v>
       </c>
       <c r="G207" s="1">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I207" s="4" t="s">
         <v>445</v>
@@ -9744,13 +9813,13 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B208" s="1">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D208" s="1"/>
       <c r="E208" s="1">
@@ -9760,10 +9829,10 @@
         <v>306</v>
       </c>
       <c r="G208" s="1">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I208" s="4" t="s">
         <v>445</v>
@@ -9777,32 +9846,32 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B209" s="1">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="G209" s="1">
-        <v>15.1</v>
+        <v>14.5</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I209" s="4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="J209" s="5" t="s">
-        <v>761</v>
+        <v>447</v>
       </c>
       <c r="K209" s="5" t="s">
         <v>444</v>
@@ -9810,13 +9879,13 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B210" s="1">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1">
@@ -9826,10 +9895,10 @@
         <v>317</v>
       </c>
       <c r="G210" s="1">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I210" s="4" t="s">
         <v>443</v>
@@ -9843,13 +9912,13 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B211" s="1">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1">
@@ -9859,10 +9928,10 @@
         <v>317</v>
       </c>
       <c r="G211" s="1">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I211" s="4" t="s">
         <v>443</v>
@@ -9876,13 +9945,13 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B212" s="1">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1">
@@ -9892,10 +9961,10 @@
         <v>317</v>
       </c>
       <c r="G212" s="1">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I212" s="4" t="s">
         <v>443</v>
@@ -9909,17 +9978,15 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B213" s="1">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>756</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="D213" s="1"/>
       <c r="E213" s="1">
         <v>15</v>
       </c>
@@ -9927,10 +9994,10 @@
         <v>317</v>
       </c>
       <c r="G213" s="1">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I213" s="4" t="s">
         <v>443</v>
@@ -9944,15 +10011,17 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B214" s="1">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D214" s="1"/>
+        <v>325</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>756</v>
+      </c>
       <c r="E214" s="1">
         <v>15</v>
       </c>
@@ -9960,10 +10029,10 @@
         <v>317</v>
       </c>
       <c r="G214" s="1">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I214" s="4" t="s">
         <v>443</v>
@@ -9977,13 +10046,13 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B215" s="1">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D215" s="1"/>
       <c r="E215" s="1">
@@ -9993,10 +10062,10 @@
         <v>317</v>
       </c>
       <c r="G215" s="1">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I215" s="4" t="s">
         <v>443</v>
@@ -10010,32 +10079,32 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B216" s="1">
-        <v>225</v>
-      </c>
-      <c r="C216" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="D216" s="7"/>
-      <c r="E216" s="7">
-        <v>16</v>
-      </c>
-      <c r="F216" s="7" t="s">
-        <v>332</v>
+        <v>224</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1">
+        <v>15</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="G216" s="1">
-        <v>16.100000000000001</v>
+        <v>15.7</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I216" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J216" s="5" t="s">
-        <v>452</v>
+        <v>761</v>
       </c>
       <c r="K216" s="5" t="s">
         <v>444</v>
@@ -10043,13 +10112,13 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B217" s="1">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D217" s="7"/>
       <c r="E217" s="7">
@@ -10059,10 +10128,10 @@
         <v>332</v>
       </c>
       <c r="G217" s="1">
-        <v>16.2</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I217" s="4" t="s">
         <v>445</v>
@@ -10076,13 +10145,13 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B218" s="1">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D218" s="7"/>
       <c r="E218" s="7">
@@ -10092,10 +10161,10 @@
         <v>332</v>
       </c>
       <c r="G218" s="1">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I218" s="4" t="s">
         <v>445</v>
@@ -10109,13 +10178,13 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B219" s="1">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D219" s="7"/>
       <c r="E219" s="7">
@@ -10125,10 +10194,10 @@
         <v>332</v>
       </c>
       <c r="G219" s="1">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I219" s="4" t="s">
         <v>445</v>
@@ -10142,13 +10211,13 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B220" s="1">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D220" s="7"/>
       <c r="E220" s="7">
@@ -10175,13 +10244,13 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B221" s="1">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D221" s="7"/>
       <c r="E221" s="7">
@@ -10208,13 +10277,13 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B222" s="1">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D222" s="7"/>
       <c r="E222" s="7">
@@ -10241,13 +10310,13 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B223" s="1">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D223" s="7"/>
       <c r="E223" s="7">
@@ -10257,10 +10326,10 @@
         <v>332</v>
       </c>
       <c r="G223" s="1">
-        <v>16.7</v>
+        <v>16.2</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="I223" s="4" t="s">
         <v>445</v>
@@ -10274,13 +10343,13 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B224" s="1">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D224" s="7"/>
       <c r="E224" s="7">
@@ -10290,10 +10359,10 @@
         <v>332</v>
       </c>
       <c r="G224" s="1">
-        <v>16.399999999999999</v>
+        <v>16.7</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I224" s="4" t="s">
         <v>445</v>
@@ -10307,13 +10376,13 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B225" s="1">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D225" s="7"/>
       <c r="E225" s="7">
@@ -10323,10 +10392,10 @@
         <v>332</v>
       </c>
       <c r="G225" s="1">
-        <v>16.5</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I225" s="4" t="s">
         <v>445</v>
@@ -10340,17 +10409,15 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B226" s="1">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="D226" s="7" t="s">
-        <v>754</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="D226" s="7"/>
       <c r="E226" s="7">
         <v>16</v>
       </c>
@@ -10358,10 +10425,10 @@
         <v>332</v>
       </c>
       <c r="G226" s="1">
-        <v>16.600000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I226" s="4" t="s">
         <v>445</v>
@@ -10375,15 +10442,17 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B227" s="1">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="D227" s="7"/>
+        <v>348</v>
+      </c>
+      <c r="D227" s="7" t="s">
+        <v>754</v>
+      </c>
       <c r="E227" s="7">
         <v>16</v>
       </c>
@@ -10408,17 +10477,15 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B228" s="1">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="D228" s="7" t="s">
-        <v>759</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="D228" s="7"/>
       <c r="E228" s="7">
         <v>16</v>
       </c>
@@ -10426,10 +10493,10 @@
         <v>332</v>
       </c>
       <c r="G228" s="1">
-        <v>16.100000000000001</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I228" s="4" t="s">
         <v>445</v>
@@ -10443,16 +10510,16 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B229" s="1">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
       <c r="E229" s="7">
         <v>16</v>
@@ -10478,15 +10545,17 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B230" s="1">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="D230" s="7"/>
+        <v>353</v>
+      </c>
+      <c r="D230" s="7" t="s">
+        <v>775</v>
+      </c>
       <c r="E230" s="7">
         <v>16</v>
       </c>
@@ -10494,10 +10563,10 @@
         <v>332</v>
       </c>
       <c r="G230" s="1">
-        <v>16.8</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I230" s="4" t="s">
         <v>445</v>
@@ -10511,13 +10580,13 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B231" s="1">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D231" s="7"/>
       <c r="E231" s="7">
@@ -10527,10 +10596,10 @@
         <v>332</v>
       </c>
       <c r="G231" s="1">
-        <v>16.899999999999999</v>
+        <v>16.8</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I231" s="4" t="s">
         <v>445</v>
@@ -10544,13 +10613,13 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B232" s="1">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D232" s="7"/>
       <c r="E232" s="7">
@@ -10560,10 +10629,10 @@
         <v>332</v>
       </c>
       <c r="G232" s="1">
-        <v>16.11</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I232" s="4" t="s">
         <v>445</v>
@@ -10577,13 +10646,13 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B233" s="1">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D233" s="7"/>
       <c r="E233" s="7">
@@ -10610,13 +10679,13 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B234" s="1">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D234" s="7"/>
       <c r="E234" s="7">
@@ -10643,17 +10712,15 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B235" s="1">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="D235" s="7" t="s">
-        <v>752</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="D235" s="7"/>
       <c r="E235" s="7">
         <v>16</v>
       </c>
@@ -10661,10 +10728,10 @@
         <v>332</v>
       </c>
       <c r="G235" s="1">
-        <v>16.12</v>
+        <v>16.11</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I235" s="4" t="s">
         <v>445</v>
@@ -10678,32 +10745,34 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B236" s="1">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="D236" s="7"/>
+        <v>362</v>
+      </c>
+      <c r="D236" s="7" t="s">
+        <v>752</v>
+      </c>
       <c r="E236" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F236" s="7" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="G236" s="1">
-        <v>17.100000000000001</v>
+        <v>16.12</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="I236" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J236" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="K236" s="5" t="s">
         <v>444</v>
@@ -10711,13 +10780,13 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B237" s="1">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D237" s="7"/>
       <c r="E237" s="7">
@@ -10744,13 +10813,13 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B238" s="1">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D238" s="7"/>
       <c r="E238" s="7">
@@ -10777,13 +10846,13 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B239" s="1">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D239" s="7"/>
       <c r="E239" s="7">
@@ -10810,13 +10879,13 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B240" s="1">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D240" s="7"/>
       <c r="E240" s="7">
@@ -10843,19 +10912,19 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B241" s="1">
-        <v>250</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D241" s="1"/>
-      <c r="E241" s="1">
+        <v>249</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D241" s="7"/>
+      <c r="E241" s="7">
         <v>17</v>
       </c>
-      <c r="F241" s="1" t="s">
+      <c r="F241" s="7" t="s">
         <v>365</v>
       </c>
       <c r="G241" s="1">
@@ -10876,13 +10945,13 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B242" s="1">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D242" s="1"/>
       <c r="E242" s="1">
@@ -10909,13 +10978,13 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B243" s="1">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D243" s="1"/>
       <c r="E243" s="1">
@@ -10942,13 +11011,13 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B244" s="1">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D244" s="1"/>
       <c r="E244" s="1">
@@ -10975,13 +11044,13 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B245" s="1">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D245" s="1"/>
       <c r="E245" s="1">
@@ -10991,10 +11060,10 @@
         <v>365</v>
       </c>
       <c r="G245" s="1">
-        <v>17.2</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="I245" s="4" t="s">
         <v>445</v>
@@ -11003,18 +11072,18 @@
         <v>448</v>
       </c>
       <c r="K245" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B246" s="1">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D246" s="1"/>
       <c r="E246" s="1">
@@ -11041,13 +11110,13 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B247" s="1">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D247" s="1"/>
       <c r="E247" s="1">
@@ -11069,18 +11138,18 @@
         <v>448</v>
       </c>
       <c r="K247" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B248" s="1">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D248" s="1"/>
       <c r="E248" s="1">
@@ -11102,18 +11171,18 @@
         <v>448</v>
       </c>
       <c r="K248" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B249" s="1">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D249" s="1"/>
       <c r="E249" s="1">
@@ -11140,26 +11209,26 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B250" s="1">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D250" s="1"/>
       <c r="E250" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="G250" s="1" t="s">
-        <v>454</v>
+        <v>365</v>
+      </c>
+      <c r="G250" s="1">
+        <v>17.2</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>454</v>
+        <v>376</v>
       </c>
       <c r="I250" s="4" t="s">
         <v>445</v>
@@ -11173,63 +11242,63 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B251" s="1">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>456</v>
+        <v>381</v>
       </c>
       <c r="D251" s="1"/>
-      <c r="E251" s="1"/>
-      <c r="F251" s="1"/>
-      <c r="G251" s="1"/>
-      <c r="H251" s="1"/>
-      <c r="I251" s="4"/>
+      <c r="E251" s="1">
+        <v>18</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="I251" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="J251" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="K251" s="5" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B252" s="1">
-        <v>650</v>
+        <v>260</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>383</v>
+        <v>456</v>
       </c>
       <c r="D252" s="1"/>
-      <c r="E252" s="1">
-        <v>5</v>
-      </c>
-      <c r="F252" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="G252" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H252" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="I252" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="J252" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="K252" s="5" t="s">
-        <v>449</v>
-      </c>
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
+      <c r="G252" s="1"/>
+      <c r="H252" s="1"/>
+      <c r="I252" s="4"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B253" s="1">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D253" s="1"/>
       <c r="E253" s="1">
@@ -11239,10 +11308,10 @@
         <v>384</v>
       </c>
       <c r="G253" s="1">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I253" s="4" t="s">
         <v>445</v>
@@ -11256,13 +11325,13 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B254" s="1">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D254" s="1"/>
       <c r="E254" s="1">
@@ -11272,10 +11341,10 @@
         <v>384</v>
       </c>
       <c r="G254" s="1">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I254" s="4" t="s">
         <v>445</v>
@@ -11289,13 +11358,13 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B255" s="1">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D255" s="1"/>
       <c r="E255" s="1">
@@ -11305,10 +11374,10 @@
         <v>384</v>
       </c>
       <c r="G255" s="1">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I255" s="4" t="s">
         <v>445</v>
@@ -11322,13 +11391,13 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B256" s="1">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D256" s="1"/>
       <c r="E256" s="1">
@@ -11338,10 +11407,10 @@
         <v>384</v>
       </c>
       <c r="G256" s="1">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I256" s="4" t="s">
         <v>445</v>
@@ -11355,13 +11424,13 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B257" s="1">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D257" s="1"/>
       <c r="E257" s="1">
@@ -11371,10 +11440,10 @@
         <v>384</v>
       </c>
       <c r="G257" s="1">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I257" s="4" t="s">
         <v>445</v>
@@ -11388,13 +11457,13 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B258" s="1">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D258" s="1"/>
       <c r="E258" s="1">
@@ -11404,10 +11473,10 @@
         <v>384</v>
       </c>
       <c r="G258" s="1">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I258" s="4" t="s">
         <v>445</v>
@@ -11421,13 +11490,13 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B259" s="1">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D259" s="1"/>
       <c r="E259" s="1">
@@ -11437,10 +11506,10 @@
         <v>384</v>
       </c>
       <c r="G259" s="1">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I259" s="4" t="s">
         <v>445</v>
@@ -11454,13 +11523,13 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B260" s="1">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D260" s="1"/>
       <c r="E260" s="1">
@@ -11470,10 +11539,10 @@
         <v>384</v>
       </c>
       <c r="G260" s="1">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I260" s="4" t="s">
         <v>445</v>
@@ -11487,17 +11556,15 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B261" s="1">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>763</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="D261" s="1"/>
       <c r="E261" s="1">
         <v>5</v>
       </c>
@@ -11505,10 +11572,10 @@
         <v>384</v>
       </c>
       <c r="G261" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.9</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I261" s="4" t="s">
         <v>445</v>
@@ -11522,15 +11589,17 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B262" s="1">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D262" s="1"/>
+        <v>402</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>763</v>
+      </c>
       <c r="E262" s="1">
         <v>5</v>
       </c>
@@ -11538,16 +11607,16 @@
         <v>384</v>
       </c>
       <c r="G262" s="1">
-        <v>5.1100000000000003</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I262" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J262" s="5" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="K262" s="5" t="s">
         <v>449</v>
@@ -11555,13 +11624,13 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B263" s="1">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D263" s="1"/>
       <c r="E263" s="1">
@@ -11571,10 +11640,10 @@
         <v>384</v>
       </c>
       <c r="G263" s="1">
-        <v>5.12</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I263" s="4" t="s">
         <v>445</v>
@@ -11588,13 +11657,13 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B264" s="1">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D264" s="1"/>
       <c r="E264" s="1">
@@ -11604,10 +11673,10 @@
         <v>384</v>
       </c>
       <c r="G264" s="1">
-        <v>5.13</v>
+        <v>5.12</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I264" s="4" t="s">
         <v>445</v>
@@ -11621,13 +11690,13 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B265" s="1">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D265" s="1"/>
       <c r="E265" s="1">
@@ -11637,16 +11706,16 @@
         <v>384</v>
       </c>
       <c r="G265" s="1">
-        <v>5.14</v>
+        <v>5.13</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I265" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J265" s="5" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="K265" s="5" t="s">
         <v>449</v>
@@ -11654,13 +11723,13 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B266" s="1">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D266" s="1"/>
       <c r="E266" s="1">
@@ -11670,10 +11739,10 @@
         <v>384</v>
       </c>
       <c r="G266" s="1">
-        <v>5.15</v>
+        <v>5.14</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I266" s="4" t="s">
         <v>445</v>
@@ -11687,46 +11756,46 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B267" s="1">
-        <v>2601</v>
+        <v>670</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D267" s="1"/>
       <c r="E267" s="1">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="G267" s="1" t="s">
-        <v>454</v>
+        <v>384</v>
+      </c>
+      <c r="G267" s="1">
+        <v>5.15</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>454</v>
+        <v>413</v>
       </c>
       <c r="I267" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J267" s="5" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="K267" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B268" s="1">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D268" s="1"/>
       <c r="E268" s="1">
@@ -11753,13 +11822,13 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B269" s="1">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D269" s="1"/>
       <c r="E269" s="1">
@@ -11786,13 +11855,13 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B270" s="1">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D270" s="1"/>
       <c r="E270" s="1">
@@ -11819,13 +11888,13 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B271" s="1">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D271" s="1"/>
       <c r="E271" s="1">
@@ -11852,13 +11921,13 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B272" s="1">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D272" s="1"/>
       <c r="E272" s="1">
@@ -11885,13 +11954,13 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B273" s="1">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D273" s="1"/>
       <c r="E273" s="1">
@@ -11918,13 +11987,13 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B274" s="1">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D274" s="1"/>
       <c r="E274" s="1">
@@ -11951,13 +12020,13 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B275" s="1">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D275" s="1"/>
       <c r="E275" s="1">
@@ -11984,13 +12053,13 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B276" s="1">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D276" s="1"/>
       <c r="E276" s="1">
@@ -12017,13 +12086,13 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B277" s="1">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D277" s="1"/>
       <c r="E277" s="1">
@@ -12050,13 +12119,13 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B278" s="1">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D278" s="1"/>
       <c r="E278" s="1">
@@ -12083,13 +12152,13 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B279" s="1">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D279" s="1"/>
       <c r="E279" s="1">
@@ -12116,13 +12185,13 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B280" s="1">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D280" s="1"/>
       <c r="E280" s="1">
@@ -12149,13 +12218,13 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B281" s="1">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D281" s="1"/>
       <c r="E281" s="1">
@@ -12182,13 +12251,13 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B282" s="1">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D282" s="1"/>
       <c r="E282" s="1">
@@ -12215,13 +12284,13 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B283" s="1">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D283" s="1"/>
       <c r="E283" s="1">
@@ -12248,13 +12317,13 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B284" s="1">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D284" s="1"/>
       <c r="E284" s="1">
@@ -12281,13 +12350,13 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B285" s="1">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D285" s="1"/>
       <c r="E285" s="1">
@@ -12314,13 +12383,13 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B286" s="1">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D286" s="1"/>
       <c r="E286" s="1">
@@ -12347,13 +12416,13 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B287" s="1">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D287" s="1"/>
       <c r="E287" s="1">
@@ -12375,6 +12444,39 @@
         <v>452</v>
       </c>
       <c r="K287" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>742</v>
+      </c>
+      <c r="B288" s="1">
+        <v>2621</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D288" s="1"/>
+      <c r="E288" s="1">
+        <v>18</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="H288" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="I288" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="J288" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="K288" s="5" t="s">
         <v>444</v>
       </c>
     </row>

--- a/myCCB/myInfo/CCS Code and Names Linkage.xlsx
+++ b/myCCB/myInfo/CCS Code and Names Linkage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\myCCB\myInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8790AF-6E85-4B36-BB60-B12BB6826632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D02345B-E602-41B7-9C3A-4AB95F3C8710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30840" yWindow="3420" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="names" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="784">
   <si>
     <t>Tuberculosis</t>
   </si>
@@ -2361,6 +2361,18 @@
   </si>
   <si>
     <t>COVID-19 contact</t>
+  </si>
+  <si>
+    <t>Drug overdose</t>
+  </si>
+  <si>
+    <t>o1000</t>
+  </si>
+  <si>
+    <t>Assault by drug</t>
+  </si>
+  <si>
+    <t>o1001</t>
   </si>
 </sst>
 </file>
@@ -2941,11 +2953,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L288"/>
+  <dimension ref="A1:L290"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2963,7 +2975,7 @@
     <col min="11" max="11" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="81.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="80.25" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>457</v>
       </c>
@@ -3049,32 +3061,24 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>458</v>
-      </c>
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10" t="s">
+        <v>781</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>445</v>
-      </c>
       <c r="J4" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>444</v>
@@ -3082,34 +3086,24 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>459</v>
+        <v>783</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>1001</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>445</v>
+        <v>782</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>444</v>
@@ -3117,25 +3111,25 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>460</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1">
+        <v>458</v>
+      </c>
+      <c r="B6" s="10">
         <v>1</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="C6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
+      <c r="F6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="10" t="s">
         <v>2</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -3150,15 +3144,17 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B7" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>765</v>
+      </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
@@ -3166,10 +3162,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>445</v>
@@ -3183,13 +3179,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B8" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1">
@@ -3199,10 +3195,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>445</v>
@@ -3216,13 +3212,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B9" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
@@ -3232,10 +3228,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>445</v>
@@ -3249,13 +3245,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
@@ -3282,13 +3278,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B11" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1">
@@ -3298,10 +3294,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>445</v>
@@ -3315,17 +3311,15 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B12" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>744</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="1">
         <v>1</v>
       </c>
@@ -3333,10 +3327,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>445</v>
@@ -3350,13 +3344,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B13" s="1">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
@@ -3366,10 +3360,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>445</v>
@@ -3378,37 +3372,39 @@
         <v>451</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B14" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>744</v>
+      </c>
       <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="1">
-        <v>2.11</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="I14" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>444</v>
@@ -3416,46 +3412,46 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B15" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>2.2000000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B16" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1">
@@ -3465,10 +3461,10 @@
         <v>16</v>
       </c>
       <c r="G16" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.11</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>445</v>
@@ -3482,13 +3478,13 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B17" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1">
@@ -3498,10 +3494,10 @@
         <v>16</v>
       </c>
       <c r="G17" s="1">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>445</v>
@@ -3515,13 +3511,13 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B18" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1">
@@ -3531,10 +3527,10 @@
         <v>16</v>
       </c>
       <c r="G18" s="1">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>445</v>
@@ -3548,13 +3544,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B19" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
@@ -3564,10 +3560,10 @@
         <v>16</v>
       </c>
       <c r="G19" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>445</v>
@@ -3581,13 +3577,13 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B20" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1">
@@ -3597,10 +3593,10 @@
         <v>16</v>
       </c>
       <c r="G20" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>445</v>
@@ -3614,13 +3610,13 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B21" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1">
@@ -3647,13 +3643,13 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B22" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
@@ -3663,10 +3659,10 @@
         <v>16</v>
       </c>
       <c r="G22" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>445</v>
@@ -3680,13 +3676,13 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B23" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1">
@@ -3696,10 +3692,10 @@
         <v>16</v>
       </c>
       <c r="G23" s="1">
-        <v>2.11</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>445</v>
@@ -3713,13 +3709,13 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B24" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1">
@@ -3729,10 +3725,10 @@
         <v>16</v>
       </c>
       <c r="G24" s="1">
-        <v>2.11</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>445</v>
@@ -3746,13 +3742,13 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B25" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1">
@@ -3762,10 +3758,10 @@
         <v>16</v>
       </c>
       <c r="G25" s="1">
-        <v>2.4</v>
+        <v>2.11</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>445</v>
@@ -3779,13 +3775,13 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B26" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1">
@@ -3795,10 +3791,10 @@
         <v>16</v>
       </c>
       <c r="G26" s="1">
-        <v>2.4</v>
+        <v>2.11</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>445</v>
@@ -3812,13 +3808,13 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B27" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
@@ -3828,10 +3824,10 @@
         <v>16</v>
       </c>
       <c r="G27" s="1">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>445</v>
@@ -3845,13 +3841,13 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B28" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
@@ -3861,10 +3857,10 @@
         <v>16</v>
       </c>
       <c r="G28" s="1">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>445</v>
@@ -3878,13 +3874,13 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B29" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
@@ -3894,10 +3890,10 @@
         <v>16</v>
       </c>
       <c r="G29" s="1">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>445</v>
@@ -3911,13 +3907,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B30" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1">
@@ -3927,10 +3923,10 @@
         <v>16</v>
       </c>
       <c r="G30" s="1">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>445</v>
@@ -3944,13 +3940,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B31" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
@@ -3960,10 +3956,10 @@
         <v>16</v>
       </c>
       <c r="G31" s="1">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>445</v>
@@ -3977,13 +3973,13 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B32" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1">
@@ -3993,10 +3989,10 @@
         <v>16</v>
       </c>
       <c r="G32" s="1">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>445</v>
@@ -4010,13 +4006,13 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B33" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1">
@@ -4026,10 +4022,10 @@
         <v>16</v>
       </c>
       <c r="G33" s="1">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>445</v>
@@ -4043,13 +4039,13 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B34" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1">
@@ -4076,13 +4072,13 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B35" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1">
@@ -4092,10 +4088,10 @@
         <v>16</v>
       </c>
       <c r="G35" s="1">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>445</v>
@@ -4109,13 +4105,13 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B36" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
@@ -4125,10 +4121,10 @@
         <v>16</v>
       </c>
       <c r="G36" s="1">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>445</v>
@@ -4142,13 +4138,13 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B37" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
@@ -4175,13 +4171,13 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B38" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1">
@@ -4191,10 +4187,10 @@
         <v>16</v>
       </c>
       <c r="G38" s="1">
-        <v>2.11</v>
+        <v>2.9</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>445</v>
@@ -4208,13 +4204,13 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B39" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1">
@@ -4224,10 +4220,10 @@
         <v>16</v>
       </c>
       <c r="G39" s="1">
-        <v>2.11</v>
+        <v>2.9</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>445</v>
@@ -4241,13 +4237,13 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B40" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1">
@@ -4257,10 +4253,10 @@
         <v>16</v>
       </c>
       <c r="G40" s="1">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>445</v>
@@ -4274,13 +4270,13 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B41" s="1">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1">
@@ -4290,10 +4286,10 @@
         <v>16</v>
       </c>
       <c r="G41" s="1">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>445</v>
@@ -4307,13 +4303,13 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B42" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1">
@@ -4340,13 +4336,13 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B43" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1">
@@ -4373,13 +4369,13 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B44" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1">
@@ -4389,10 +4385,10 @@
         <v>16</v>
       </c>
       <c r="G44" s="1">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>445</v>
@@ -4406,13 +4402,13 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B45" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1">
@@ -4422,10 +4418,10 @@
         <v>16</v>
       </c>
       <c r="G45" s="1">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>445</v>
@@ -4439,13 +4435,13 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B46" s="1">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1">
@@ -4455,10 +4451,10 @@
         <v>16</v>
       </c>
       <c r="G46" s="1">
-        <v>2.13</v>
+        <v>2.11</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>445</v>
@@ -4472,13 +4468,13 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B47" s="1">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1">
@@ -4488,10 +4484,10 @@
         <v>16</v>
       </c>
       <c r="G47" s="1">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>445</v>
@@ -4505,17 +4501,15 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B48" s="1">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>771</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D48" s="1"/>
       <c r="E48" s="1">
         <v>2</v>
       </c>
@@ -4523,10 +4517,10 @@
         <v>16</v>
       </c>
       <c r="G48" s="1">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>445</v>
@@ -4540,13 +4534,13 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B49" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1">
@@ -4556,10 +4550,10 @@
         <v>16</v>
       </c>
       <c r="G49" s="1">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>445</v>
@@ -4573,15 +4567,17 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B50" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>771</v>
+      </c>
       <c r="E50" s="1">
         <v>2</v>
       </c>
@@ -4589,10 +4585,10 @@
         <v>16</v>
       </c>
       <c r="G50" s="1">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>445</v>
@@ -4606,65 +4602,65 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B51" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G51" s="1">
-        <v>3.1</v>
+        <v>2.16</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B52" s="1">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G52" s="1">
-        <v>3.2</v>
+        <v>2.16</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>444</v>
@@ -4672,13 +4668,13 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B53" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1">
@@ -4688,10 +4684,10 @@
         <v>70</v>
       </c>
       <c r="G53" s="1">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>445</v>
@@ -4700,18 +4696,18 @@
         <v>447</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B54" s="1">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1">
@@ -4721,10 +4717,10 @@
         <v>70</v>
       </c>
       <c r="G54" s="1">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>445</v>
@@ -4738,13 +4734,13 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B55" s="1">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1">
@@ -4754,30 +4750,30 @@
         <v>70</v>
       </c>
       <c r="G55" s="1">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B56" s="1">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1">
@@ -4787,16 +4783,16 @@
         <v>70</v>
       </c>
       <c r="G56" s="1">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K56" s="5" t="s">
         <v>444</v>
@@ -4804,13 +4800,13 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B57" s="1">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1">
@@ -4820,30 +4816,30 @@
         <v>70</v>
       </c>
       <c r="G57" s="1">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B58" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1">
@@ -4853,10 +4849,10 @@
         <v>70</v>
       </c>
       <c r="G58" s="1">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>445</v>
@@ -4865,18 +4861,18 @@
         <v>448</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B59" s="1">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1">
@@ -4886,10 +4882,10 @@
         <v>70</v>
       </c>
       <c r="G59" s="1">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>445</v>
@@ -4903,13 +4899,13 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B60" s="1">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1">
@@ -4919,30 +4915,30 @@
         <v>70</v>
       </c>
       <c r="G60" s="1">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B61" s="1">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1">
@@ -4952,76 +4948,76 @@
         <v>70</v>
       </c>
       <c r="G61" s="1">
-        <v>3.11</v>
+        <v>3.9</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B62" s="1">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="G62" s="1">
-        <v>4.0999999999999996</v>
+        <v>3.1</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B63" s="1">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="G63" s="1">
-        <v>4.0999999999999996</v>
+        <v>3.11</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>445</v>
@@ -5035,13 +5031,13 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B64" s="1">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1">
@@ -5060,21 +5056,21 @@
         <v>445</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B65" s="1">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1">
@@ -5084,16 +5080,16 @@
         <v>93</v>
       </c>
       <c r="G65" s="1">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>449</v>
@@ -5101,13 +5097,13 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B66" s="1">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1">
@@ -5117,10 +5113,10 @@
         <v>93</v>
       </c>
       <c r="G66" s="1">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I66" s="4" t="s">
         <v>445</v>
@@ -5129,18 +5125,18 @@
         <v>447</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B67" s="1">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1">
@@ -5150,10 +5146,10 @@
         <v>93</v>
       </c>
       <c r="G67" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>445</v>
@@ -5167,85 +5163,83 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B68" s="1">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>745</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D68" s="1"/>
       <c r="E68" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="G68" s="1">
-        <v>6.1</v>
+        <v>4.3</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B69" s="1">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>746</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D69" s="1"/>
       <c r="E69" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="G69" s="1">
-        <v>6.1</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B70" s="1">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D70" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>745</v>
+      </c>
       <c r="E70" s="1">
         <v>6</v>
       </c>
@@ -5270,15 +5264,17 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B71" s="1">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D71" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>746</v>
+      </c>
       <c r="E71" s="1">
         <v>6</v>
       </c>
@@ -5286,16 +5282,16 @@
         <v>104</v>
       </c>
       <c r="G71" s="1">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I71" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K71" s="5" t="s">
         <v>444</v>
@@ -5303,13 +5299,13 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B72" s="1">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1">
@@ -5319,16 +5315,16 @@
         <v>104</v>
       </c>
       <c r="G72" s="1">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="K72" s="5" t="s">
         <v>444</v>
@@ -5336,13 +5332,13 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B73" s="1">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1">
@@ -5369,13 +5365,13 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B74" s="1">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1">
@@ -5385,10 +5381,10 @@
         <v>104</v>
       </c>
       <c r="G74" s="1">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>445</v>
@@ -5402,13 +5398,13 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B75" s="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1">
@@ -5418,30 +5414,30 @@
         <v>104</v>
       </c>
       <c r="G75" s="1">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B76" s="1">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1">
@@ -5451,16 +5447,16 @@
         <v>104</v>
       </c>
       <c r="G76" s="1">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I76" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K76" s="5" t="s">
         <v>444</v>
@@ -5468,13 +5464,13 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B77" s="1">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1">
@@ -5484,30 +5480,30 @@
         <v>104</v>
       </c>
       <c r="G77" s="1">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I77" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B78" s="1">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1">
@@ -5517,16 +5513,16 @@
         <v>104</v>
       </c>
       <c r="G78" s="1">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I78" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K78" s="5" t="s">
         <v>444</v>
@@ -5534,13 +5530,13 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B79" s="1">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1">
@@ -5550,16 +5546,16 @@
         <v>104</v>
       </c>
       <c r="G79" s="1">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I79" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K79" s="5" t="s">
         <v>444</v>
@@ -5567,13 +5563,13 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B80" s="1">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1">
@@ -5600,13 +5596,13 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B81" s="1">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1">
@@ -5625,25 +5621,23 @@
         <v>445</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K81" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B82" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>747</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D82" s="1"/>
       <c r="E82" s="1">
         <v>6</v>
       </c>
@@ -5660,7 +5654,7 @@
         <v>445</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K82" s="5" t="s">
         <v>444</v>
@@ -5668,13 +5662,13 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B83" s="1">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1">
@@ -5693,23 +5687,25 @@
         <v>445</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B84" s="1">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D84" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>747</v>
+      </c>
       <c r="E84" s="1">
         <v>6</v>
       </c>
@@ -5717,10 +5713,10 @@
         <v>104</v>
       </c>
       <c r="G84" s="1">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I84" s="4" t="s">
         <v>445</v>
@@ -5734,17 +5730,15 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B85" s="1">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>760</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="D85" s="1"/>
       <c r="E85" s="1">
         <v>6</v>
       </c>
@@ -5752,10 +5746,10 @@
         <v>104</v>
       </c>
       <c r="G85" s="1">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I85" s="4" t="s">
         <v>445</v>
@@ -5764,18 +5758,18 @@
         <v>448</v>
       </c>
       <c r="K85" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B86" s="1">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1">
@@ -5794,7 +5788,7 @@
         <v>445</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="K86" s="5" t="s">
         <v>444</v>
@@ -5802,15 +5796,17 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B87" s="1">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D87" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>760</v>
+      </c>
       <c r="E87" s="1">
         <v>6</v>
       </c>
@@ -5818,16 +5814,16 @@
         <v>104</v>
       </c>
       <c r="G87" s="1">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I87" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K87" s="5" t="s">
         <v>449</v>
@@ -5835,32 +5831,32 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B88" s="1">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="G88" s="1">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="I88" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="K88" s="5" t="s">
         <v>444</v>
@@ -5868,48 +5864,46 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B89" s="1">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>748</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D89" s="1"/>
       <c r="E89" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="G89" s="1">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I89" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K89" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B90" s="1">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1">
@@ -5919,10 +5913,10 @@
         <v>134</v>
       </c>
       <c r="G90" s="1">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I90" s="4" t="s">
         <v>445</v>
@@ -5936,16 +5930,16 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B91" s="1">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="E91" s="1">
         <v>7</v>
@@ -5954,10 +5948,10 @@
         <v>134</v>
       </c>
       <c r="G91" s="1">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I91" s="4" t="s">
         <v>445</v>
@@ -5971,13 +5965,13 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B92" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1">
@@ -5987,10 +5981,10 @@
         <v>134</v>
       </c>
       <c r="G92" s="1">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I92" s="4" t="s">
         <v>445</v>
@@ -6004,15 +5998,17 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B93" s="1">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D93" s="1"/>
+        <v>139</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>757</v>
+      </c>
       <c r="E93" s="1">
         <v>7</v>
       </c>
@@ -6020,10 +6016,10 @@
         <v>134</v>
       </c>
       <c r="G93" s="1">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I93" s="4" t="s">
         <v>445</v>
@@ -6037,13 +6033,13 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B94" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1">
@@ -6070,13 +6066,13 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B95" s="1">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1">
@@ -6103,13 +6099,13 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B96" s="1">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1">
@@ -6136,13 +6132,13 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B97" s="1">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1">
@@ -6169,13 +6165,13 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B98" s="1">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1">
@@ -6202,13 +6198,13 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B99" s="1">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1">
@@ -6235,13 +6231,13 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B100" s="1">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1">
@@ -6268,17 +6264,15 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B101" s="1">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>768</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="D101" s="1"/>
       <c r="E101" s="1">
         <v>7</v>
       </c>
@@ -6286,10 +6280,10 @@
         <v>134</v>
       </c>
       <c r="G101" s="1">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="I101" s="4" t="s">
         <v>445</v>
@@ -6303,13 +6297,13 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B102" s="1">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1">
@@ -6319,10 +6313,10 @@
         <v>134</v>
       </c>
       <c r="G102" s="1">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="I102" s="4" t="s">
         <v>445</v>
@@ -6336,15 +6330,17 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B103" s="1">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D103" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>768</v>
+      </c>
       <c r="E103" s="1">
         <v>7</v>
       </c>
@@ -6369,13 +6365,13 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B104" s="1">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1">
@@ -6402,13 +6398,13 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B105" s="1">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1">
@@ -6435,13 +6431,13 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B106" s="1">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1">
@@ -6451,10 +6447,10 @@
         <v>134</v>
       </c>
       <c r="G106" s="1">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I106" s="4" t="s">
         <v>445</v>
@@ -6468,13 +6464,13 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B107" s="1">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1">
@@ -6484,10 +6480,10 @@
         <v>134</v>
       </c>
       <c r="G107" s="1">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I107" s="4" t="s">
         <v>445</v>
@@ -6501,13 +6497,13 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B108" s="1">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1">
@@ -6534,13 +6530,13 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B109" s="1">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1">
@@ -6567,13 +6563,13 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B110" s="1">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1">
@@ -6583,10 +6579,10 @@
         <v>134</v>
       </c>
       <c r="G110" s="1">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I110" s="4" t="s">
         <v>445</v>
@@ -6600,13 +6596,13 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B111" s="1">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1">
@@ -6616,10 +6612,10 @@
         <v>134</v>
       </c>
       <c r="G111" s="1">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I111" s="4" t="s">
         <v>445</v>
@@ -6633,13 +6629,13 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B112" s="1">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1">
@@ -6666,13 +6662,13 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B113" s="1">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1">
@@ -6699,34 +6695,32 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B114" s="1">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>749</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="D114" s="1"/>
       <c r="E114" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="G114" s="1">
-        <v>8.1</v>
+        <v>7.5</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="I114" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="K114" s="5" t="s">
         <v>444</v>
@@ -6734,32 +6728,32 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B115" s="1">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="G115" s="1">
-        <v>8.1</v>
+        <v>7.5</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="I115" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J115" s="5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="K115" s="5" t="s">
         <v>444</v>
@@ -6767,15 +6761,17 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B116" s="1">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D116" s="1"/>
+        <v>165</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>749</v>
+      </c>
       <c r="E116" s="1">
         <v>8</v>
       </c>
@@ -6792,7 +6788,7 @@
         <v>445</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="K116" s="5" t="s">
         <v>444</v>
@@ -6800,13 +6796,13 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B117" s="1">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1">
@@ -6825,25 +6821,23 @@
         <v>445</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="K117" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B118" s="1">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>753</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="D118" s="1"/>
       <c r="E118" s="1">
         <v>8</v>
       </c>
@@ -6868,17 +6862,15 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B119" s="1">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>751</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D119" s="1"/>
       <c r="E119" s="1">
         <v>8</v>
       </c>
@@ -6886,32 +6878,34 @@
         <v>166</v>
       </c>
       <c r="G119" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.1</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I119" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K119" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B120" s="1">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D120" s="1"/>
+        <v>171</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>753</v>
+      </c>
       <c r="E120" s="1">
         <v>8</v>
       </c>
@@ -6919,16 +6913,16 @@
         <v>166</v>
       </c>
       <c r="G120" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.1</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="I120" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K120" s="5" t="s">
         <v>444</v>
@@ -6936,15 +6930,17 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B121" s="1">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D121" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>751</v>
+      </c>
       <c r="E121" s="1">
         <v>8</v>
       </c>
@@ -6952,30 +6948,30 @@
         <v>166</v>
       </c>
       <c r="G121" s="1">
-        <v>8.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I121" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="K121" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B122" s="1">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1">
@@ -6985,16 +6981,16 @@
         <v>166</v>
       </c>
       <c r="G122" s="1">
-        <v>8.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I122" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K122" s="5" t="s">
         <v>444</v>
@@ -7002,17 +6998,15 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B123" s="1">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>774</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="D123" s="1"/>
       <c r="E123" s="1">
         <v>8</v>
       </c>
@@ -7020,30 +7014,30 @@
         <v>166</v>
       </c>
       <c r="G123" s="1">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I123" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="K123" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B124" s="1">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1">
@@ -7053,10 +7047,10 @@
         <v>166</v>
       </c>
       <c r="G124" s="1">
-        <v>8.6999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I124" s="4" t="s">
         <v>445</v>
@@ -7065,20 +7059,22 @@
         <v>448</v>
       </c>
       <c r="K124" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B125" s="1">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D125" s="1"/>
+        <v>180</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>774</v>
+      </c>
       <c r="E125" s="1">
         <v>8</v>
       </c>
@@ -7086,10 +7082,10 @@
         <v>166</v>
       </c>
       <c r="G125" s="1">
-        <v>8.8000000000000007</v>
+        <v>8.6</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I125" s="4" t="s">
         <v>445</v>
@@ -7103,13 +7099,13 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B126" s="1">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1">
@@ -7119,10 +7115,10 @@
         <v>166</v>
       </c>
       <c r="G126" s="1">
-        <v>8.9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I126" s="4" t="s">
         <v>445</v>
@@ -7131,37 +7127,37 @@
         <v>448</v>
       </c>
       <c r="K126" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B127" s="1">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="G127" s="1">
-        <v>9.1</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="I127" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="K127" s="5" t="s">
         <v>444</v>
@@ -7169,32 +7165,32 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B128" s="1">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="G128" s="1">
-        <v>9.1999999999999993</v>
+        <v>8.9</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="I128" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K128" s="5" t="s">
         <v>444</v>
@@ -7202,13 +7198,13 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B129" s="1">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1">
@@ -7218,30 +7214,30 @@
         <v>189</v>
       </c>
       <c r="G129" s="1">
-        <v>9.3000000000000007</v>
+        <v>9.1</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I129" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="K129" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B130" s="1">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1">
@@ -7251,10 +7247,10 @@
         <v>189</v>
       </c>
       <c r="G130" s="1">
-        <v>9.4</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I130" s="4" t="s">
         <v>445</v>
@@ -7268,13 +7264,13 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B131" s="1">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1">
@@ -7284,16 +7280,16 @@
         <v>189</v>
       </c>
       <c r="G131" s="1">
-        <v>9.4</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I131" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K131" s="5" t="s">
         <v>449</v>
@@ -7301,13 +7297,13 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B132" s="1">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1">
@@ -7326,7 +7322,7 @@
         <v>445</v>
       </c>
       <c r="J132" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K132" s="5" t="s">
         <v>444</v>
@@ -7334,13 +7330,13 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B133" s="1">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1">
@@ -7359,7 +7355,7 @@
         <v>445</v>
       </c>
       <c r="J133" s="5" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="K133" s="5" t="s">
         <v>449</v>
@@ -7367,17 +7363,15 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B134" s="1">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>770</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D134" s="1"/>
       <c r="E134" s="1">
         <v>9</v>
       </c>
@@ -7385,10 +7379,10 @@
         <v>189</v>
       </c>
       <c r="G134" s="1">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I134" s="4" t="s">
         <v>445</v>
@@ -7402,13 +7396,13 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B135" s="1">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1">
@@ -7418,16 +7412,16 @@
         <v>189</v>
       </c>
       <c r="G135" s="1">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="I135" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K135" s="5" t="s">
         <v>449</v>
@@ -7435,15 +7429,17 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B136" s="1">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D136" s="1"/>
+        <v>200</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>770</v>
+      </c>
       <c r="E136" s="1">
         <v>9</v>
       </c>
@@ -7460,7 +7456,7 @@
         <v>445</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K136" s="5" t="s">
         <v>444</v>
@@ -7468,13 +7464,13 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B137" s="1">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1">
@@ -7484,10 +7480,10 @@
         <v>189</v>
       </c>
       <c r="G137" s="1">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I137" s="4" t="s">
         <v>445</v>
@@ -7496,18 +7492,18 @@
         <v>448</v>
       </c>
       <c r="K137" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B138" s="1">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1">
@@ -7526,7 +7522,7 @@
         <v>445</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K138" s="5" t="s">
         <v>444</v>
@@ -7534,13 +7530,13 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B139" s="1">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1">
@@ -7562,18 +7558,18 @@
         <v>448</v>
       </c>
       <c r="K139" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B140" s="1">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1">
@@ -7600,13 +7596,13 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B141" s="1">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1">
@@ -7616,10 +7612,10 @@
         <v>189</v>
       </c>
       <c r="G141" s="1">
-        <v>9.6999999999999993</v>
+        <v>9.6</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="I141" s="4" t="s">
         <v>445</v>
@@ -7633,30 +7629,46 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B142" s="1">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>455</v>
+        <v>208</v>
       </c>
       <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
-      <c r="I142" s="4"/>
+      <c r="E142" s="1">
+        <v>9</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G142" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="J142" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="K142" s="5" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B143" s="1">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1">
@@ -7666,16 +7678,16 @@
         <v>189</v>
       </c>
       <c r="G143" s="1">
-        <v>9.8000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I143" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J143" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K143" s="5" t="s">
         <v>449</v>
@@ -7683,46 +7695,30 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B144" s="1">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>213</v>
+        <v>455</v>
       </c>
       <c r="D144" s="1"/>
-      <c r="E144" s="1">
-        <v>9</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G144" s="1">
-        <v>9.9</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="I144" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="J144" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="K144" s="5" t="s">
-        <v>444</v>
-      </c>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="4"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B145" s="1">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1">
@@ -7732,30 +7728,30 @@
         <v>189</v>
       </c>
       <c r="G145" s="1">
-        <v>9.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I145" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J145" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K145" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B146" s="1">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1">
@@ -7765,16 +7761,16 @@
         <v>189</v>
       </c>
       <c r="G146" s="1">
-        <v>9.11</v>
+        <v>9.9</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I146" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J146" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K146" s="5" t="s">
         <v>444</v>
@@ -7782,17 +7778,15 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B147" s="1">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>767</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="D147" s="1"/>
       <c r="E147" s="1">
         <v>9</v>
       </c>
@@ -7800,98 +7794,98 @@
         <v>189</v>
       </c>
       <c r="G147" s="1">
-        <v>9.1199999999999992</v>
+        <v>9.1</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I147" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J147" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K147" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B148" s="1">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="G148" s="1">
-        <v>10.1</v>
+        <v>9.11</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="I148" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J148" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K148" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B149" s="1">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E149" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="G149" s="1">
-        <v>10.1</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I149" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J149" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K149" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B150" s="1">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1">
@@ -7913,20 +7907,22 @@
         <v>447</v>
       </c>
       <c r="K150" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B151" s="1">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D151" s="1"/>
+        <v>224</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>769</v>
+      </c>
       <c r="E151" s="1">
         <v>10</v>
       </c>
@@ -7943,7 +7939,7 @@
         <v>445</v>
       </c>
       <c r="J151" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="K151" s="5" t="s">
         <v>444</v>
@@ -7951,13 +7947,13 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B152" s="1">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1">
@@ -7976,21 +7972,21 @@
         <v>445</v>
       </c>
       <c r="J152" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K152" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B153" s="1">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1">
@@ -8009,21 +8005,21 @@
         <v>445</v>
       </c>
       <c r="J153" s="5" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="K153" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B154" s="1">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1">
@@ -8050,13 +8046,13 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B155" s="1">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1">
@@ -8078,18 +8074,18 @@
         <v>448</v>
       </c>
       <c r="K155" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B156" s="1">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1">
@@ -8099,30 +8095,30 @@
         <v>222</v>
       </c>
       <c r="G156" s="1">
-        <v>10.199999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="I156" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J156" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K156" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B157" s="1">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1">
@@ -8132,10 +8128,10 @@
         <v>222</v>
       </c>
       <c r="G157" s="1">
-        <v>10.199999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="I157" s="4" t="s">
         <v>445</v>
@@ -8144,18 +8140,18 @@
         <v>448</v>
       </c>
       <c r="K157" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B158" s="1">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1">
@@ -8174,21 +8170,21 @@
         <v>445</v>
       </c>
       <c r="J158" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K158" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B159" s="1">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1">
@@ -8198,30 +8194,30 @@
         <v>222</v>
       </c>
       <c r="G159" s="1">
-        <v>10.3</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="I159" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J159" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K159" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B160" s="1">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1">
@@ -8231,10 +8227,10 @@
         <v>222</v>
       </c>
       <c r="G160" s="1">
-        <v>10.3</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="I160" s="4" t="s">
         <v>445</v>
@@ -8248,13 +8244,13 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B161" s="1">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1">
@@ -8281,13 +8277,13 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B162" s="1">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1">
@@ -8306,7 +8302,7 @@
         <v>445</v>
       </c>
       <c r="J162" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K162" s="5" t="s">
         <v>449</v>
@@ -8314,13 +8310,13 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B163" s="1">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1">
@@ -8342,18 +8338,18 @@
         <v>447</v>
       </c>
       <c r="K163" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B164" s="1">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1">
@@ -8375,18 +8371,18 @@
         <v>447</v>
       </c>
       <c r="K164" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B165" s="1">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1">
@@ -8408,18 +8404,18 @@
         <v>447</v>
       </c>
       <c r="K165" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B166" s="1">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1">
@@ -8446,13 +8442,13 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B167" s="1">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1">
@@ -8471,40 +8467,40 @@
         <v>445</v>
       </c>
       <c r="J167" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K167" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B168" s="1">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D168" s="1"/>
       <c r="E168" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="G168" s="1">
-        <v>11.1</v>
+        <v>10.3</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="J168" s="5" t="s">
-        <v>761</v>
+        <v>447</v>
       </c>
       <c r="K168" s="5" t="s">
         <v>444</v>
@@ -8512,46 +8508,46 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B169" s="1">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="G169" s="1">
-        <v>11.2</v>
+        <v>10.3</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="I169" s="4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="J169" s="5" t="s">
-        <v>761</v>
+        <v>448</v>
       </c>
       <c r="K169" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B170" s="1">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D170" s="1"/>
       <c r="E170" s="1">
@@ -8561,10 +8557,10 @@
         <v>246</v>
       </c>
       <c r="G170" s="1">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I170" s="4" t="s">
         <v>443</v>
@@ -8578,13 +8574,13 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B171" s="1">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1">
@@ -8611,13 +8607,13 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B172" s="1">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1">
@@ -8627,10 +8623,10 @@
         <v>246</v>
       </c>
       <c r="G172" s="1">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I172" s="4" t="s">
         <v>443</v>
@@ -8644,13 +8640,13 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B173" s="1">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1">
@@ -8660,10 +8656,10 @@
         <v>246</v>
       </c>
       <c r="G173" s="1">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I173" s="4" t="s">
         <v>443</v>
@@ -8677,13 +8673,13 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B174" s="1">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1">
@@ -8710,17 +8706,15 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B175" s="1">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>773</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D175" s="1"/>
       <c r="E175" s="1">
         <v>11</v>
       </c>
@@ -8745,13 +8739,13 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B176" s="1">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1">
@@ -8778,15 +8772,17 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B177" s="1">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D177" s="1"/>
+        <v>256</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>773</v>
+      </c>
       <c r="E177" s="1">
         <v>11</v>
       </c>
@@ -8811,13 +8807,13 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B178" s="1">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D178" s="1"/>
       <c r="E178" s="1">
@@ -8844,13 +8840,13 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B179" s="1">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1">
@@ -8860,10 +8856,10 @@
         <v>246</v>
       </c>
       <c r="G179" s="1">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="I179" s="4" t="s">
         <v>443</v>
@@ -8877,13 +8873,13 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B180" s="1">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D180" s="1"/>
       <c r="E180" s="1">
@@ -8893,10 +8889,10 @@
         <v>246</v>
       </c>
       <c r="G180" s="1">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="I180" s="4" t="s">
         <v>443</v>
@@ -8910,13 +8906,13 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B181" s="1">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1">
@@ -8943,13 +8939,13 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B182" s="1">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1">
@@ -8976,17 +8972,15 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B183" s="1">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>772</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="D183" s="1"/>
       <c r="E183" s="1">
         <v>11</v>
       </c>
@@ -9011,13 +9005,13 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B184" s="1">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1">
@@ -9027,10 +9021,10 @@
         <v>246</v>
       </c>
       <c r="G184" s="1">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="I184" s="4" t="s">
         <v>443</v>
@@ -9044,16 +9038,16 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B185" s="1">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="E185" s="1">
         <v>11</v>
@@ -9062,10 +9056,10 @@
         <v>246</v>
       </c>
       <c r="G185" s="1">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="I185" s="4" t="s">
         <v>443</v>
@@ -9079,13 +9073,13 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B186" s="1">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1">
@@ -9112,16 +9106,16 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B187" s="1">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E187" s="1">
         <v>11</v>
@@ -9130,10 +9124,10 @@
         <v>246</v>
       </c>
       <c r="G187" s="1">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I187" s="4" t="s">
         <v>443</v>
@@ -9147,13 +9141,13 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B188" s="1">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1">
@@ -9163,10 +9157,10 @@
         <v>246</v>
       </c>
       <c r="G188" s="1">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="I188" s="4" t="s">
         <v>443</v>
@@ -9180,34 +9174,34 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B189" s="1">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="E189" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="G189" s="1">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I189" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J189" s="5" t="s">
-        <v>451</v>
+        <v>761</v>
       </c>
       <c r="K189" s="5" t="s">
         <v>444</v>
@@ -9215,32 +9209,32 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B190" s="1">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="G190" s="1">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="I190" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J190" s="5" t="s">
-        <v>448</v>
+        <v>761</v>
       </c>
       <c r="K190" s="5" t="s">
         <v>444</v>
@@ -9248,15 +9242,17 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B191" s="1">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D191" s="1"/>
+        <v>274</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>766</v>
+      </c>
       <c r="E191" s="1">
         <v>12</v>
       </c>
@@ -9264,30 +9260,30 @@
         <v>275</v>
       </c>
       <c r="G191" s="1">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I191" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J191" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="K191" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B192" s="1">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1">
@@ -9297,10 +9293,10 @@
         <v>275</v>
       </c>
       <c r="G192" s="1">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="I192" s="4" t="s">
         <v>445</v>
@@ -9309,84 +9305,84 @@
         <v>448</v>
       </c>
       <c r="K192" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B193" s="1">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D193" s="1"/>
       <c r="E193" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="G193" s="1">
-        <v>13.1</v>
+        <v>12.3</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="I193" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J193" s="5" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K193" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B194" s="1">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="G194" s="1">
-        <v>13.2</v>
+        <v>12.4</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="I194" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J194" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K194" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B195" s="1">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D195" s="1"/>
       <c r="E195" s="1">
@@ -9396,16 +9392,16 @@
         <v>284</v>
       </c>
       <c r="G195" s="1">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I195" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J195" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="K195" s="5" t="s">
         <v>444</v>
@@ -9413,13 +9409,13 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B196" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D196" s="1"/>
       <c r="E196" s="1">
@@ -9446,17 +9442,15 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B197" s="1">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>758</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="D197" s="1"/>
       <c r="E197" s="1">
         <v>13</v>
       </c>
@@ -9464,10 +9458,10 @@
         <v>284</v>
       </c>
       <c r="G197" s="1">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I197" s="4" t="s">
         <v>445</v>
@@ -9481,13 +9475,13 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B198" s="1">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1">
@@ -9497,10 +9491,10 @@
         <v>284</v>
       </c>
       <c r="G198" s="1">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="I198" s="4" t="s">
         <v>445</v>
@@ -9514,15 +9508,17 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B199" s="1">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D199" s="1"/>
+        <v>290</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>758</v>
+      </c>
       <c r="E199" s="1">
         <v>13</v>
       </c>
@@ -9530,30 +9526,30 @@
         <v>284</v>
       </c>
       <c r="G199" s="1">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="I199" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J199" s="5" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K199" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B200" s="1">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1">
@@ -9563,10 +9559,10 @@
         <v>284</v>
       </c>
       <c r="G200" s="1">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="I200" s="4" t="s">
         <v>445</v>
@@ -9580,13 +9576,13 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B201" s="1">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1">
@@ -9596,30 +9592,30 @@
         <v>284</v>
       </c>
       <c r="G201" s="1">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I201" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J201" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="K201" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B202" s="1">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D202" s="1"/>
       <c r="E202" s="1">
@@ -9629,10 +9625,10 @@
         <v>284</v>
       </c>
       <c r="G202" s="1">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I202" s="4" t="s">
         <v>445</v>
@@ -9646,13 +9642,13 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B203" s="1">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D203" s="1"/>
       <c r="E203" s="1">
@@ -9662,10 +9658,10 @@
         <v>284</v>
       </c>
       <c r="G203" s="1">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="I203" s="4" t="s">
         <v>445</v>
@@ -9674,18 +9670,18 @@
         <v>447</v>
       </c>
       <c r="K203" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B204" s="1">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1">
@@ -9695,10 +9691,10 @@
         <v>284</v>
       </c>
       <c r="G204" s="1">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I204" s="4" t="s">
         <v>445</v>
@@ -9712,61 +9708,59 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B205" s="1">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>755</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="D205" s="1"/>
       <c r="E205" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="G205" s="1">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="I205" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J205" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K205" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B206" s="1">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D206" s="1"/>
       <c r="E206" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="G206" s="1">
-        <v>14.2</v>
+        <v>13.9</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="I206" s="4" t="s">
         <v>445</v>
@@ -9780,15 +9774,17 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B207" s="1">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D207" s="1"/>
+        <v>305</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>755</v>
+      </c>
       <c r="E207" s="1">
         <v>14</v>
       </c>
@@ -9796,16 +9792,16 @@
         <v>306</v>
       </c>
       <c r="G207" s="1">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I207" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J207" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K207" s="5" t="s">
         <v>444</v>
@@ -9813,13 +9809,13 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B208" s="1">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D208" s="1"/>
       <c r="E208" s="1">
@@ -9829,10 +9825,10 @@
         <v>306</v>
       </c>
       <c r="G208" s="1">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="I208" s="4" t="s">
         <v>445</v>
@@ -9846,13 +9842,13 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B209" s="1">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1">
@@ -9862,10 +9858,10 @@
         <v>306</v>
       </c>
       <c r="G209" s="1">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I209" s="4" t="s">
         <v>445</v>
@@ -9879,32 +9875,32 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B210" s="1">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="G210" s="1">
-        <v>15.1</v>
+        <v>14.4</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="I210" s="4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="J210" s="5" t="s">
-        <v>761</v>
+        <v>447</v>
       </c>
       <c r="K210" s="5" t="s">
         <v>444</v>
@@ -9912,32 +9908,32 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B211" s="1">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="G211" s="1">
-        <v>15.2</v>
+        <v>14.5</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="I211" s="4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="J211" s="5" t="s">
-        <v>761</v>
+        <v>447</v>
       </c>
       <c r="K211" s="5" t="s">
         <v>444</v>
@@ -9945,13 +9941,13 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B212" s="1">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1">
@@ -9961,10 +9957,10 @@
         <v>317</v>
       </c>
       <c r="G212" s="1">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="I212" s="4" t="s">
         <v>443</v>
@@ -9978,13 +9974,13 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B213" s="1">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1">
@@ -9994,10 +9990,10 @@
         <v>317</v>
       </c>
       <c r="G213" s="1">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I213" s="4" t="s">
         <v>443</v>
@@ -10011,17 +10007,15 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B214" s="1">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>756</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D214" s="1"/>
       <c r="E214" s="1">
         <v>15</v>
       </c>
@@ -10029,10 +10023,10 @@
         <v>317</v>
       </c>
       <c r="G214" s="1">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I214" s="4" t="s">
         <v>443</v>
@@ -10046,13 +10040,13 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B215" s="1">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D215" s="1"/>
       <c r="E215" s="1">
@@ -10062,10 +10056,10 @@
         <v>317</v>
       </c>
       <c r="G215" s="1">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I215" s="4" t="s">
         <v>443</v>
@@ -10079,15 +10073,17 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B216" s="1">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D216" s="1"/>
+        <v>325</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>756</v>
+      </c>
       <c r="E216" s="1">
         <v>15</v>
       </c>
@@ -10095,10 +10091,10 @@
         <v>317</v>
       </c>
       <c r="G216" s="1">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I216" s="4" t="s">
         <v>443</v>
@@ -10112,32 +10108,32 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B217" s="1">
-        <v>225</v>
-      </c>
-      <c r="C217" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="D217" s="7"/>
-      <c r="E217" s="7">
-        <v>16</v>
-      </c>
-      <c r="F217" s="7" t="s">
-        <v>332</v>
+        <v>223</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1">
+        <v>15</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="G217" s="1">
-        <v>16.100000000000001</v>
+        <v>15.6</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I217" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J217" s="5" t="s">
-        <v>452</v>
+        <v>761</v>
       </c>
       <c r="K217" s="5" t="s">
         <v>444</v>
@@ -10145,32 +10141,32 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B218" s="1">
-        <v>226</v>
-      </c>
-      <c r="C218" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="D218" s="7"/>
-      <c r="E218" s="7">
-        <v>16</v>
-      </c>
-      <c r="F218" s="7" t="s">
-        <v>332</v>
+        <v>224</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1">
+        <v>15</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="G218" s="1">
-        <v>16.2</v>
+        <v>15.7</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="I218" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J218" s="5" t="s">
-        <v>452</v>
+        <v>761</v>
       </c>
       <c r="K218" s="5" t="s">
         <v>444</v>
@@ -10178,13 +10174,13 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B219" s="1">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D219" s="7"/>
       <c r="E219" s="7">
@@ -10194,10 +10190,10 @@
         <v>332</v>
       </c>
       <c r="G219" s="1">
-        <v>16.3</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I219" s="4" t="s">
         <v>445</v>
@@ -10211,13 +10207,13 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B220" s="1">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D220" s="7"/>
       <c r="E220" s="7">
@@ -10244,13 +10240,13 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B221" s="1">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D221" s="7"/>
       <c r="E221" s="7">
@@ -10260,10 +10256,10 @@
         <v>332</v>
       </c>
       <c r="G221" s="1">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I221" s="4" t="s">
         <v>445</v>
@@ -10277,13 +10273,13 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B222" s="1">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D222" s="7"/>
       <c r="E222" s="7">
@@ -10310,13 +10306,13 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B223" s="1">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D223" s="7"/>
       <c r="E223" s="7">
@@ -10343,13 +10339,13 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B224" s="1">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D224" s="7"/>
       <c r="E224" s="7">
@@ -10359,10 +10355,10 @@
         <v>332</v>
       </c>
       <c r="G224" s="1">
-        <v>16.7</v>
+        <v>16.2</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="I224" s="4" t="s">
         <v>445</v>
@@ -10376,13 +10372,13 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B225" s="1">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D225" s="7"/>
       <c r="E225" s="7">
@@ -10392,10 +10388,10 @@
         <v>332</v>
       </c>
       <c r="G225" s="1">
-        <v>16.399999999999999</v>
+        <v>16.2</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="I225" s="4" t="s">
         <v>445</v>
@@ -10409,13 +10405,13 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B226" s="1">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D226" s="7"/>
       <c r="E226" s="7">
@@ -10425,10 +10421,10 @@
         <v>332</v>
       </c>
       <c r="G226" s="1">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I226" s="4" t="s">
         <v>445</v>
@@ -10442,17 +10438,15 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B227" s="1">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="D227" s="7" t="s">
-        <v>754</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="D227" s="7"/>
       <c r="E227" s="7">
         <v>16</v>
       </c>
@@ -10460,10 +10454,10 @@
         <v>332</v>
       </c>
       <c r="G227" s="1">
-        <v>16.600000000000001</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I227" s="4" t="s">
         <v>445</v>
@@ -10477,13 +10471,13 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B228" s="1">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D228" s="7"/>
       <c r="E228" s="7">
@@ -10493,10 +10487,10 @@
         <v>332</v>
       </c>
       <c r="G228" s="1">
-        <v>16.600000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I228" s="4" t="s">
         <v>445</v>
@@ -10510,16 +10504,16 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B229" s="1">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="E229" s="7">
         <v>16</v>
@@ -10528,10 +10522,10 @@
         <v>332</v>
       </c>
       <c r="G229" s="1">
-        <v>16.100000000000001</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I229" s="4" t="s">
         <v>445</v>
@@ -10545,17 +10539,15 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B230" s="1">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="D230" s="7" t="s">
-        <v>775</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="D230" s="7"/>
       <c r="E230" s="7">
         <v>16</v>
       </c>
@@ -10563,10 +10555,10 @@
         <v>332</v>
       </c>
       <c r="G230" s="1">
-        <v>16.100000000000001</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I230" s="4" t="s">
         <v>445</v>
@@ -10580,15 +10572,17 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B231" s="1">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="D231" s="7"/>
+        <v>351</v>
+      </c>
+      <c r="D231" s="7" t="s">
+        <v>759</v>
+      </c>
       <c r="E231" s="7">
         <v>16</v>
       </c>
@@ -10596,10 +10590,10 @@
         <v>332</v>
       </c>
       <c r="G231" s="1">
-        <v>16.8</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I231" s="4" t="s">
         <v>445</v>
@@ -10613,15 +10607,17 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B232" s="1">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="D232" s="7"/>
+        <v>353</v>
+      </c>
+      <c r="D232" s="7" t="s">
+        <v>775</v>
+      </c>
       <c r="E232" s="7">
         <v>16</v>
       </c>
@@ -10629,10 +10625,10 @@
         <v>332</v>
       </c>
       <c r="G232" s="1">
-        <v>16.899999999999999</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="I232" s="4" t="s">
         <v>445</v>
@@ -10646,13 +10642,13 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B233" s="1">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D233" s="7"/>
       <c r="E233" s="7">
@@ -10662,10 +10658,10 @@
         <v>332</v>
       </c>
       <c r="G233" s="1">
-        <v>16.11</v>
+        <v>16.8</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="I233" s="4" t="s">
         <v>445</v>
@@ -10679,13 +10675,13 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B234" s="1">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D234" s="7"/>
       <c r="E234" s="7">
@@ -10695,10 +10691,10 @@
         <v>332</v>
       </c>
       <c r="G234" s="1">
-        <v>16.11</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I234" s="4" t="s">
         <v>445</v>
@@ -10712,13 +10708,13 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B235" s="1">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D235" s="7"/>
       <c r="E235" s="7">
@@ -10745,17 +10741,15 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B236" s="1">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="D236" s="7" t="s">
-        <v>752</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="D236" s="7"/>
       <c r="E236" s="7">
         <v>16</v>
       </c>
@@ -10763,10 +10757,10 @@
         <v>332</v>
       </c>
       <c r="G236" s="1">
-        <v>16.12</v>
+        <v>16.11</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I236" s="4" t="s">
         <v>445</v>
@@ -10780,32 +10774,32 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B237" s="1">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D237" s="7"/>
       <c r="E237" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F237" s="7" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="G237" s="1">
-        <v>17.100000000000001</v>
+        <v>16.11</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="I237" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J237" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="K237" s="5" t="s">
         <v>444</v>
@@ -10813,32 +10807,34 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B238" s="1">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="D238" s="7"/>
+        <v>362</v>
+      </c>
+      <c r="D238" s="7" t="s">
+        <v>752</v>
+      </c>
       <c r="E238" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F238" s="7" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="G238" s="1">
-        <v>17.100000000000001</v>
+        <v>16.12</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="I238" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J238" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="K238" s="5" t="s">
         <v>444</v>
@@ -10846,13 +10842,13 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B239" s="1">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D239" s="7"/>
       <c r="E239" s="7">
@@ -10879,13 +10875,13 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B240" s="1">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D240" s="7"/>
       <c r="E240" s="7">
@@ -10912,13 +10908,13 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B241" s="1">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D241" s="7"/>
       <c r="E241" s="7">
@@ -10945,19 +10941,19 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B242" s="1">
-        <v>250</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D242" s="1"/>
-      <c r="E242" s="1">
+        <v>248</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D242" s="7"/>
+      <c r="E242" s="7">
         <v>17</v>
       </c>
-      <c r="F242" s="1" t="s">
+      <c r="F242" s="7" t="s">
         <v>365</v>
       </c>
       <c r="G242" s="1">
@@ -10978,19 +10974,19 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B243" s="1">
-        <v>251</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D243" s="1"/>
-      <c r="E243" s="1">
+        <v>249</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D243" s="7"/>
+      <c r="E243" s="7">
         <v>17</v>
       </c>
-      <c r="F243" s="1" t="s">
+      <c r="F243" s="7" t="s">
         <v>365</v>
       </c>
       <c r="G243" s="1">
@@ -11011,13 +11007,13 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B244" s="1">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D244" s="1"/>
       <c r="E244" s="1">
@@ -11044,13 +11040,13 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B245" s="1">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D245" s="1"/>
       <c r="E245" s="1">
@@ -11077,13 +11073,13 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B246" s="1">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D246" s="1"/>
       <c r="E246" s="1">
@@ -11093,10 +11089,10 @@
         <v>365</v>
       </c>
       <c r="G246" s="1">
-        <v>17.2</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="I246" s="4" t="s">
         <v>445</v>
@@ -11105,18 +11101,18 @@
         <v>448</v>
       </c>
       <c r="K246" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B247" s="1">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D247" s="1"/>
       <c r="E247" s="1">
@@ -11126,10 +11122,10 @@
         <v>365</v>
       </c>
       <c r="G247" s="1">
-        <v>17.2</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="I247" s="4" t="s">
         <v>445</v>
@@ -11138,18 +11134,18 @@
         <v>448</v>
       </c>
       <c r="K247" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B248" s="1">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D248" s="1"/>
       <c r="E248" s="1">
@@ -11171,18 +11167,18 @@
         <v>448</v>
       </c>
       <c r="K248" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B249" s="1">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D249" s="1"/>
       <c r="E249" s="1">
@@ -11209,13 +11205,13 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B250" s="1">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D250" s="1"/>
       <c r="E250" s="1">
@@ -11237,31 +11233,31 @@
         <v>448</v>
       </c>
       <c r="K250" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B251" s="1">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D251" s="1"/>
       <c r="E251" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="G251" s="1" t="s">
-        <v>454</v>
+        <v>365</v>
+      </c>
+      <c r="G251" s="1">
+        <v>17.2</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>454</v>
+        <v>376</v>
       </c>
       <c r="I251" s="4" t="s">
         <v>445</v>
@@ -11275,49 +11271,65 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B252" s="1">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>456</v>
+        <v>380</v>
       </c>
       <c r="D252" s="1"/>
-      <c r="E252" s="1"/>
-      <c r="F252" s="1"/>
-      <c r="G252" s="1"/>
-      <c r="H252" s="1"/>
-      <c r="I252" s="4"/>
+      <c r="E252" s="1">
+        <v>17</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G252" s="1">
+        <v>17.2</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="I252" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="J252" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="K252" s="5" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B253" s="1">
-        <v>650</v>
+        <v>259</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D253" s="1"/>
       <c r="E253" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="G253" s="1">
-        <v>5.0999999999999996</v>
+        <v>382</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>454</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>385</v>
+        <v>454</v>
       </c>
       <c r="I253" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J253" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K253" s="5" t="s">
         <v>449</v>
@@ -11325,46 +11337,30 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B254" s="1">
-        <v>651</v>
+        <v>260</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>386</v>
+        <v>456</v>
       </c>
       <c r="D254" s="1"/>
-      <c r="E254" s="1">
-        <v>5</v>
-      </c>
-      <c r="F254" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="G254" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="H254" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="I254" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="J254" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="K254" s="5" t="s">
-        <v>449</v>
-      </c>
+      <c r="E254" s="1"/>
+      <c r="F254" s="1"/>
+      <c r="G254" s="1"/>
+      <c r="H254" s="1"/>
+      <c r="I254" s="4"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B255" s="1">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D255" s="1"/>
       <c r="E255" s="1">
@@ -11374,10 +11370,10 @@
         <v>384</v>
       </c>
       <c r="G255" s="1">
-        <v>5.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I255" s="4" t="s">
         <v>445</v>
@@ -11391,13 +11387,13 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B256" s="1">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D256" s="1"/>
       <c r="E256" s="1">
@@ -11407,10 +11403,10 @@
         <v>384</v>
       </c>
       <c r="G256" s="1">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I256" s="4" t="s">
         <v>445</v>
@@ -11424,13 +11420,13 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B257" s="1">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D257" s="1"/>
       <c r="E257" s="1">
@@ -11440,10 +11436,10 @@
         <v>384</v>
       </c>
       <c r="G257" s="1">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I257" s="4" t="s">
         <v>445</v>
@@ -11457,13 +11453,13 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B258" s="1">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D258" s="1"/>
       <c r="E258" s="1">
@@ -11473,10 +11469,10 @@
         <v>384</v>
       </c>
       <c r="G258" s="1">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I258" s="4" t="s">
         <v>445</v>
@@ -11490,13 +11486,13 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B259" s="1">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D259" s="1"/>
       <c r="E259" s="1">
@@ -11506,10 +11502,10 @@
         <v>384</v>
       </c>
       <c r="G259" s="1">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I259" s="4" t="s">
         <v>445</v>
@@ -11523,13 +11519,13 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B260" s="1">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D260" s="1"/>
       <c r="E260" s="1">
@@ -11539,10 +11535,10 @@
         <v>384</v>
       </c>
       <c r="G260" s="1">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="I260" s="4" t="s">
         <v>445</v>
@@ -11556,13 +11552,13 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B261" s="1">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D261" s="1"/>
       <c r="E261" s="1">
@@ -11572,10 +11568,10 @@
         <v>384</v>
       </c>
       <c r="G261" s="1">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I261" s="4" t="s">
         <v>445</v>
@@ -11589,17 +11585,15 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B262" s="1">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>763</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="D262" s="1"/>
       <c r="E262" s="1">
         <v>5</v>
       </c>
@@ -11607,10 +11601,10 @@
         <v>384</v>
       </c>
       <c r="G262" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.8</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I262" s="4" t="s">
         <v>445</v>
@@ -11624,13 +11618,13 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B263" s="1">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D263" s="1"/>
       <c r="E263" s="1">
@@ -11640,16 +11634,16 @@
         <v>384</v>
       </c>
       <c r="G263" s="1">
-        <v>5.1100000000000003</v>
+        <v>5.9</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I263" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J263" s="5" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="K263" s="5" t="s">
         <v>449</v>
@@ -11657,15 +11651,17 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B264" s="1">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D264" s="1"/>
+        <v>402</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>763</v>
+      </c>
       <c r="E264" s="1">
         <v>5</v>
       </c>
@@ -11673,16 +11669,16 @@
         <v>384</v>
       </c>
       <c r="G264" s="1">
-        <v>5.12</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I264" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J264" s="5" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="K264" s="5" t="s">
         <v>449</v>
@@ -11690,13 +11686,13 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B265" s="1">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D265" s="1"/>
       <c r="E265" s="1">
@@ -11706,10 +11702,10 @@
         <v>384</v>
       </c>
       <c r="G265" s="1">
-        <v>5.13</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="I265" s="4" t="s">
         <v>445</v>
@@ -11723,13 +11719,13 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B266" s="1">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D266" s="1"/>
       <c r="E266" s="1">
@@ -11739,16 +11735,16 @@
         <v>384</v>
       </c>
       <c r="G266" s="1">
-        <v>5.14</v>
+        <v>5.12</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I266" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J266" s="5" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="K266" s="5" t="s">
         <v>449</v>
@@ -11756,13 +11752,13 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B267" s="1">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D267" s="1"/>
       <c r="E267" s="1">
@@ -11772,16 +11768,16 @@
         <v>384</v>
       </c>
       <c r="G267" s="1">
-        <v>5.15</v>
+        <v>5.13</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="I267" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J267" s="5" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="K267" s="5" t="s">
         <v>449</v>
@@ -11789,79 +11785,79 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B268" s="1">
-        <v>2601</v>
+        <v>663</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D268" s="1"/>
       <c r="E268" s="1">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="G268" s="1" t="s">
-        <v>454</v>
+        <v>384</v>
+      </c>
+      <c r="G268" s="1">
+        <v>5.14</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>454</v>
+        <v>411</v>
       </c>
       <c r="I268" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J268" s="5" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="K268" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B269" s="1">
-        <v>2602</v>
+        <v>670</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D269" s="1"/>
       <c r="E269" s="1">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="G269" s="1" t="s">
-        <v>454</v>
+        <v>384</v>
+      </c>
+      <c r="G269" s="1">
+        <v>5.15</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>454</v>
+        <v>413</v>
       </c>
       <c r="I269" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J269" s="5" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="K269" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B270" s="1">
-        <v>2603</v>
+        <v>2601</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D270" s="1"/>
       <c r="E270" s="1">
@@ -11888,13 +11884,13 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B271" s="1">
-        <v>2604</v>
+        <v>2602</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D271" s="1"/>
       <c r="E271" s="1">
@@ -11921,13 +11917,13 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B272" s="1">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D272" s="1"/>
       <c r="E272" s="1">
@@ -11954,13 +11950,13 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B273" s="1">
-        <v>2606</v>
+        <v>2604</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D273" s="1"/>
       <c r="E273" s="1">
@@ -11987,13 +11983,13 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B274" s="1">
-        <v>2607</v>
+        <v>2605</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D274" s="1"/>
       <c r="E274" s="1">
@@ -12020,13 +12016,13 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B275" s="1">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D275" s="1"/>
       <c r="E275" s="1">
@@ -12053,13 +12049,13 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B276" s="1">
-        <v>2609</v>
+        <v>2607</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D276" s="1"/>
       <c r="E276" s="1">
@@ -12086,13 +12082,13 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B277" s="1">
-        <v>2610</v>
+        <v>2608</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D277" s="1"/>
       <c r="E277" s="1">
@@ -12119,13 +12115,13 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B278" s="1">
-        <v>2611</v>
+        <v>2609</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D278" s="1"/>
       <c r="E278" s="1">
@@ -12152,13 +12148,13 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B279" s="1">
-        <v>2612</v>
+        <v>2610</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D279" s="1"/>
       <c r="E279" s="1">
@@ -12185,13 +12181,13 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B280" s="1">
-        <v>2613</v>
+        <v>2611</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D280" s="1"/>
       <c r="E280" s="1">
@@ -12218,13 +12214,13 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B281" s="1">
-        <v>2614</v>
+        <v>2612</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D281" s="1"/>
       <c r="E281" s="1">
@@ -12251,13 +12247,13 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B282" s="1">
-        <v>2615</v>
+        <v>2613</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D282" s="1"/>
       <c r="E282" s="1">
@@ -12284,13 +12280,13 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B283" s="1">
-        <v>2616</v>
+        <v>2614</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D283" s="1"/>
       <c r="E283" s="1">
@@ -12317,13 +12313,13 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B284" s="1">
-        <v>2617</v>
+        <v>2615</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D284" s="1"/>
       <c r="E284" s="1">
@@ -12350,13 +12346,13 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B285" s="1">
-        <v>2618</v>
+        <v>2616</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D285" s="1"/>
       <c r="E285" s="1">
@@ -12383,13 +12379,13 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B286" s="1">
-        <v>2619</v>
+        <v>2617</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D286" s="1"/>
       <c r="E286" s="1">
@@ -12416,13 +12412,13 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B287" s="1">
-        <v>2620</v>
+        <v>2618</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D287" s="1"/>
       <c r="E287" s="1">
@@ -12449,13 +12445,13 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B288" s="1">
-        <v>2621</v>
+        <v>2619</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D288" s="1"/>
       <c r="E288" s="1">
@@ -12477,6 +12473,72 @@
         <v>452</v>
       </c>
       <c r="K288" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>741</v>
+      </c>
+      <c r="B289" s="1">
+        <v>2620</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D289" s="1"/>
+      <c r="E289" s="1">
+        <v>18</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="H289" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="I289" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="J289" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="K289" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>742</v>
+      </c>
+      <c r="B290" s="1">
+        <v>2621</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D290" s="1"/>
+      <c r="E290" s="1">
+        <v>18</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="I290" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="J290" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="K290" s="5" t="s">
         <v>444</v>
       </c>
     </row>
